--- a/R_C14_rates calculation/Output/Raw data/Growth rates all.xlsx
+++ b/R_C14_rates calculation/Output/Raw data/Growth rates all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/Output/Raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E148E8B-DEA5-F748-8499-9CC2470F0D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EF4DC8-A919-3E48-8BC1-5C5B753F817A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="24740" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5000" yWindow="1460" windowWidth="24740" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,11 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I84" sqref="I72:K84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -617,207 +616,207 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
       </c>
       <c r="K2">
-        <v>15.73914115457851</v>
+        <v>0.33283741232038139</v>
       </c>
       <c r="L2">
-        <v>2554</v>
+        <v>27345</v>
       </c>
       <c r="M2">
-        <v>2554000000</v>
+        <v>27345000000</v>
       </c>
       <c r="N2">
-        <v>0.96474639621104441</v>
+        <v>0.21843453695761991</v>
       </c>
       <c r="O2">
-        <v>697500</v>
+        <v>6438</v>
       </c>
       <c r="P2">
-        <v>3.9082083002997399</v>
+        <v>0.97837801170979055</v>
       </c>
       <c r="Q2">
-        <v>31.263866716308609</v>
+        <v>0.49011551289352451</v>
       </c>
       <c r="R2">
-        <v>5.4735664849996351</v>
+        <v>0.12988061091678399</v>
       </c>
       <c r="S2">
-        <v>5473.5664849996347</v>
+        <v>129.88061091678401</v>
       </c>
       <c r="T2">
-        <v>6.9011564716548693E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.1503390223558621E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
       <c r="K3">
-        <v>16.714265240131919</v>
+        <v>0.36536470488805523</v>
       </c>
       <c r="L3">
-        <v>689</v>
+        <v>27345</v>
       </c>
       <c r="M3">
-        <v>689000000</v>
+        <v>27345000000</v>
       </c>
       <c r="N3">
-        <v>0.2763870900108214</v>
+        <v>0.23978154852393291</v>
       </c>
       <c r="O3">
-        <v>544500</v>
+        <v>6438</v>
       </c>
       <c r="P3">
-        <v>3.2595486515934562</v>
+        <v>0.97837801170979055</v>
       </c>
       <c r="Q3">
-        <v>18.123864251263761</v>
+        <v>0.49011551289352451</v>
       </c>
       <c r="R3">
-        <v>3.280584683703224</v>
+        <v>0.12988061091678399</v>
       </c>
       <c r="S3">
-        <v>3280.5846837032241</v>
+        <v>129.88061091678401</v>
       </c>
       <c r="T3">
-        <v>0.1222777048725181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.7513948813588257E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
       </c>
       <c r="K4">
-        <v>18.26893603055953</v>
+        <v>0.38049367817534518</v>
       </c>
       <c r="L4">
-        <v>2554</v>
+        <v>27345</v>
       </c>
       <c r="M4">
-        <v>2554000000</v>
+        <v>27345000000</v>
       </c>
       <c r="N4">
-        <v>1.1198127029291769</v>
+        <v>0.24971039111291549</v>
       </c>
       <c r="O4">
-        <v>697500</v>
+        <v>6438</v>
       </c>
       <c r="P4">
-        <v>3.9082083002997399</v>
+        <v>0.97837801170979055</v>
       </c>
       <c r="Q4">
-        <v>31.263866716308609</v>
+        <v>0.49011551289352451</v>
       </c>
       <c r="R4">
-        <v>5.4735664849996351</v>
+        <v>0.12988061091678399</v>
       </c>
       <c r="S4">
-        <v>5473.5664849996347</v>
+        <v>129.88061091678401</v>
       </c>
       <c r="T4">
-        <v>8.0103980820369625E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.0309557460113623E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
@@ -835,51 +834,51 @@
         <v>26</v>
       </c>
       <c r="K5">
-        <v>6.6795896888130146E-2</v>
+        <v>0.53556565437006842</v>
       </c>
       <c r="L5">
-        <v>25022</v>
+        <v>23925</v>
       </c>
       <c r="M5">
-        <v>25022000000</v>
+        <v>23925000000</v>
       </c>
       <c r="N5">
-        <v>4.0112806366435022E-2</v>
+        <v>0.30752179873929331</v>
       </c>
       <c r="O5">
-        <v>26240</v>
+        <v>30779</v>
       </c>
       <c r="P5">
-        <v>1.0623306807534629</v>
+        <v>1.0815742503317489</v>
       </c>
       <c r="Q5">
-        <v>0.6274188620589759</v>
+        <v>0.66213632695787172</v>
       </c>
       <c r="R5">
-        <v>0.13943131075391499</v>
+        <v>0.14666394891505949</v>
       </c>
       <c r="S5">
-        <v>139.431310753915</v>
+        <v>146.66394891505951</v>
       </c>
       <c r="T5">
-        <v>1.149742849469778E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.7639640143098829E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>31</v>
@@ -894,40 +893,40 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.31154802653045782</v>
+        <v>0.57036229293083562</v>
       </c>
       <c r="L6">
-        <v>25022</v>
+        <v>23925</v>
       </c>
       <c r="M6">
-        <v>25022000000</v>
+        <v>23925000000</v>
       </c>
       <c r="N6">
-        <v>0.18709331327628281</v>
+        <v>0.32750202860088579</v>
       </c>
       <c r="O6">
-        <v>26240</v>
+        <v>30779</v>
       </c>
       <c r="P6">
-        <v>1.0623306807534629</v>
+        <v>1.0815742503317489</v>
       </c>
       <c r="Q6">
-        <v>0.6274188620589759</v>
+        <v>0.66213632695787172</v>
       </c>
       <c r="R6">
-        <v>0.13943131075391499</v>
+        <v>0.14666394891505949</v>
       </c>
       <c r="S6">
-        <v>139.431310753915</v>
+        <v>146.66394891505951</v>
       </c>
       <c r="T6">
-        <v>5.3626065740194892E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.3333741056351019E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12</v>
       </c>
@@ -989,21 +988,21 @@
         <v>8.3183387254466681E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
@@ -1015,57 +1014,57 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>7.7263910579553535E-2</v>
+        <v>34.536420220225779</v>
       </c>
       <c r="L8">
-        <v>38646</v>
+        <v>1559</v>
       </c>
       <c r="M8">
-        <v>38646000000</v>
+        <v>1559000000</v>
       </c>
       <c r="N8">
-        <v>7.1662586118178218E-2</v>
+        <v>1.2922146989599681</v>
       </c>
       <c r="O8">
-        <v>3625</v>
+        <v>537300</v>
       </c>
       <c r="P8">
-        <v>0.96645200130579856</v>
+        <v>3.229023491654337</v>
       </c>
       <c r="Q8">
-        <v>0.47241020087855717</v>
+        <v>17.61943636396725</v>
       </c>
       <c r="R8">
-        <v>0.12518870323281761</v>
+        <v>3.194774798518011</v>
       </c>
       <c r="S8">
-        <v>125.1887032328176</v>
+        <v>3194.7747985180108</v>
       </c>
       <c r="T8">
-        <v>1.481230978533836E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.25944679595879988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
@@ -1077,305 +1076,305 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.113652720078311</v>
+        <v>43.819558229306971</v>
       </c>
       <c r="L9">
-        <v>38646</v>
+        <v>1559</v>
       </c>
       <c r="M9">
-        <v>38646000000</v>
+        <v>1559000000</v>
       </c>
       <c r="N9">
-        <v>0.1054133524835138</v>
+        <v>1.6395525907077499</v>
       </c>
       <c r="O9">
-        <v>3625</v>
+        <v>537300</v>
       </c>
       <c r="P9">
-        <v>0.96645200130579856</v>
+        <v>3.229023491654337</v>
       </c>
       <c r="Q9">
-        <v>0.47241020087855717</v>
+        <v>17.61943636396725</v>
       </c>
       <c r="R9">
-        <v>0.12518870323281761</v>
+        <v>3.194774798518011</v>
       </c>
       <c r="S9">
-        <v>125.1887032328176</v>
+        <v>3194.7747985180108</v>
       </c>
       <c r="T9">
-        <v>2.1788429877788042E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.32918420352859129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.1563356384033211</v>
+        <v>33.710378278739753</v>
       </c>
       <c r="L10">
-        <v>74417</v>
+        <v>1559</v>
       </c>
       <c r="M10">
-        <v>74417000000</v>
+        <v>1559000000</v>
       </c>
       <c r="N10">
-        <v>0.27921670087343869</v>
+        <v>1.2613075136773271</v>
       </c>
       <c r="O10">
-        <v>22626</v>
+        <v>537300</v>
       </c>
       <c r="P10">
-        <v>1.0470087463062441</v>
+        <v>3.229023491654337</v>
       </c>
       <c r="Q10">
-        <v>0.60524131280717985</v>
+        <v>17.61943636396725</v>
       </c>
       <c r="R10">
-        <v>0.16038894789390271</v>
+        <v>3.194774798518011</v>
       </c>
       <c r="S10">
-        <v>160.38894789390261</v>
+        <v>3194.7747985180108</v>
       </c>
       <c r="T10">
-        <v>2.3393477985538581E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.25324134867504738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>19.377497830146719</v>
+        <v>0.113652720078311</v>
       </c>
       <c r="L11">
-        <v>2554</v>
+        <v>38646</v>
       </c>
       <c r="M11">
-        <v>2554000000</v>
+        <v>38646000000</v>
       </c>
       <c r="N11">
-        <v>1.187763106996673</v>
+        <v>0.1054133524835138</v>
       </c>
       <c r="O11">
-        <v>697500</v>
+        <v>3625</v>
       </c>
       <c r="P11">
-        <v>3.9082083002997399</v>
+        <v>0.96645200130579856</v>
       </c>
       <c r="Q11">
-        <v>31.263866716308609</v>
+        <v>0.47241020087855717</v>
       </c>
       <c r="R11">
-        <v>5.4735664849996351</v>
+        <v>0.12518870323281761</v>
       </c>
       <c r="S11">
-        <v>5473.5664849996347</v>
+        <v>125.1887032328176</v>
       </c>
       <c r="T11">
-        <v>8.496470248384172E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>2.1788429877788042E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>20.874584535710611</v>
+        <v>7.7263910579553535E-2</v>
       </c>
       <c r="L12">
-        <v>689</v>
+        <v>38646</v>
       </c>
       <c r="M12">
-        <v>689000000</v>
+        <v>38646000000</v>
       </c>
       <c r="N12">
-        <v>0.34518212988251062</v>
+        <v>7.1662586118178218E-2</v>
       </c>
       <c r="O12">
-        <v>544500</v>
+        <v>3625</v>
       </c>
       <c r="P12">
-        <v>3.2595486515934562</v>
+        <v>0.96645200130579856</v>
       </c>
       <c r="Q12">
-        <v>18.123864251263761</v>
+        <v>0.47241020087855717</v>
       </c>
       <c r="R12">
-        <v>3.280584683703224</v>
+        <v>0.12518870323281761</v>
       </c>
       <c r="S12">
-        <v>3280.5846837032241</v>
+        <v>125.1887032328176</v>
       </c>
       <c r="T12">
-        <v>0.15271364014646371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.481230978533836E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
       </c>
       <c r="K13">
-        <v>25.61880829382665</v>
+        <v>6.6795896888130146E-2</v>
       </c>
       <c r="L13">
-        <v>689</v>
+        <v>25022</v>
       </c>
       <c r="M13">
-        <v>689000000</v>
+        <v>25022000000</v>
       </c>
       <c r="N13">
-        <v>0.42363261394671742</v>
+        <v>4.0112806366435022E-2</v>
       </c>
       <c r="O13">
-        <v>544500</v>
+        <v>26240</v>
       </c>
       <c r="P13">
-        <v>3.2595486515934562</v>
+        <v>1.0623306807534629</v>
       </c>
       <c r="Q13">
-        <v>18.123864251263761</v>
+        <v>0.6274188620589759</v>
       </c>
       <c r="R13">
-        <v>3.280584683703224</v>
+        <v>0.13943131075391499</v>
       </c>
       <c r="S13">
-        <v>3280.5846837032241</v>
+        <v>139.431310753915</v>
       </c>
       <c r="T13">
-        <v>0.1874212856342963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.149742849469778E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -1390,116 +1389,116 @@
         <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.53556565437006842</v>
+        <v>0.31154802653045782</v>
       </c>
       <c r="L14">
-        <v>23925</v>
+        <v>25022</v>
       </c>
       <c r="M14">
-        <v>23925000000</v>
+        <v>25022000000</v>
       </c>
       <c r="N14">
-        <v>0.30752179873929331</v>
+        <v>0.18709331327628281</v>
       </c>
       <c r="O14">
-        <v>30779</v>
+        <v>26240</v>
       </c>
       <c r="P14">
-        <v>1.0815742503317489</v>
+        <v>1.0623306807534629</v>
       </c>
       <c r="Q14">
-        <v>0.66213632695787172</v>
+        <v>0.6274188620589759</v>
       </c>
       <c r="R14">
-        <v>0.14666394891505949</v>
+        <v>0.13943131075391499</v>
       </c>
       <c r="S14">
-        <v>146.66394891505951</v>
+        <v>139.431310753915</v>
       </c>
       <c r="T14">
-        <v>8.7639640143098829E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.3626065740194892E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.54741043362877451</v>
+        <v>45.983491762210683</v>
       </c>
       <c r="L15">
-        <v>9154</v>
+        <v>1579</v>
       </c>
       <c r="M15">
-        <v>9154000000</v>
+        <v>1579000000</v>
       </c>
       <c r="N15">
-        <v>0.1202638826265072</v>
+        <v>1.742590403820736</v>
       </c>
       <c r="O15">
-        <v>56678</v>
+        <v>617800</v>
       </c>
       <c r="P15">
-        <v>1.191375794396089</v>
+        <v>3.570311738195878</v>
       </c>
       <c r="Q15">
-        <v>0.8849621864043774</v>
+        <v>23.817534937952239</v>
       </c>
       <c r="R15">
-        <v>0.1925821618857943</v>
+        <v>4.2399414230956838</v>
       </c>
       <c r="S15">
-        <v>192.58216188579431</v>
+        <v>4239.9414230956836</v>
       </c>
       <c r="T15">
-        <v>6.821945645662468E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.26028751158719748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
@@ -1511,125 +1510,125 @@
         <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.57036229293083562</v>
+        <v>46.450066086742702</v>
       </c>
       <c r="L16">
-        <v>23925</v>
+        <v>1579</v>
       </c>
       <c r="M16">
-        <v>23925000000</v>
+        <v>1579000000</v>
       </c>
       <c r="N16">
-        <v>0.32750202860088579</v>
+        <v>1.760271704423201</v>
       </c>
       <c r="O16">
-        <v>30779</v>
+        <v>617800</v>
       </c>
       <c r="P16">
-        <v>1.0815742503317489</v>
+        <v>3.570311738195878</v>
       </c>
       <c r="Q16">
-        <v>0.66213632695787172</v>
+        <v>23.817534937952239</v>
       </c>
       <c r="R16">
-        <v>0.14666394891505949</v>
+        <v>4.2399414230956838</v>
       </c>
       <c r="S16">
-        <v>146.66394891505951</v>
+        <v>4239.9414230956836</v>
       </c>
       <c r="T16">
-        <v>9.3333741056351019E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.2629285348163799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.18530692803750301</v>
+        <v>38.979320462278288</v>
       </c>
       <c r="L17">
-        <v>74417</v>
+        <v>769</v>
       </c>
       <c r="M17">
-        <v>74417000000</v>
+        <v>769000000</v>
       </c>
       <c r="N17">
-        <v>0.33095965593040472</v>
+        <v>0.71940233845180812</v>
       </c>
       <c r="O17">
-        <v>22626</v>
+        <v>377200</v>
       </c>
       <c r="P17">
-        <v>1.0470087463062441</v>
+        <v>2.5502626435636429</v>
       </c>
       <c r="Q17">
-        <v>0.60524131280717985</v>
+        <v>8.6802678346204463</v>
       </c>
       <c r="R17">
-        <v>0.16038894789390271</v>
+        <v>1.643373790343033</v>
       </c>
       <c r="S17">
-        <v>160.38894789390261</v>
+        <v>1643.3737903430331</v>
       </c>
       <c r="T17">
-        <v>2.772863299684469E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.56925800848959907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
         <v>24</v>
@@ -1638,60 +1637,60 @@
         <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.2021207754937013</v>
+        <v>0.73764269363834278</v>
       </c>
       <c r="L18">
-        <v>79120</v>
+        <v>44330</v>
       </c>
       <c r="M18">
-        <v>79120000000</v>
+        <v>44330000000</v>
       </c>
       <c r="N18">
-        <v>0.38380309816947961</v>
+        <v>0.78479281461570571</v>
       </c>
       <c r="O18">
-        <v>3580</v>
+        <v>10175</v>
       </c>
       <c r="P18">
-        <v>0.96626121905617901</v>
+        <v>0.99422141763930283</v>
       </c>
       <c r="Q18">
-        <v>0.47213048799994611</v>
+        <v>0.51431328350755789</v>
       </c>
       <c r="R18">
-        <v>0.12511457931998571</v>
+        <v>0.13629302012950281</v>
       </c>
       <c r="S18">
-        <v>125.11457931998569</v>
+        <v>136.29302012950279</v>
       </c>
       <c r="T18">
-        <v>3.877164946095097E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.12989237915851301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
@@ -1703,181 +1702,181 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.227385872430414</v>
+        <v>0.89422356392973246</v>
       </c>
       <c r="L19">
-        <v>79120</v>
+        <v>44330</v>
       </c>
       <c r="M19">
-        <v>79120000000</v>
+        <v>44330000000</v>
       </c>
       <c r="N19">
-        <v>0.43177848544066461</v>
+        <v>0.95138233413612106</v>
       </c>
       <c r="O19">
-        <v>3580</v>
+        <v>10175</v>
       </c>
       <c r="P19">
-        <v>0.96626121905617901</v>
+        <v>0.99422141763930283</v>
       </c>
       <c r="Q19">
-        <v>0.47213048799994611</v>
+        <v>0.51431328350755789</v>
       </c>
       <c r="R19">
-        <v>0.12511457931998571</v>
+        <v>0.13629302012950281</v>
       </c>
       <c r="S19">
-        <v>125.11457931998569</v>
+        <v>136.29302012950279</v>
       </c>
       <c r="T19">
-        <v>4.3618105643569847E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.15746489082068499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
         <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20">
-        <v>33.003397515346308</v>
+        <v>2.6716610993468342</v>
       </c>
       <c r="L20">
-        <v>1634</v>
+        <v>9442</v>
       </c>
       <c r="M20">
-        <v>1634000000</v>
+        <v>9442000000</v>
       </c>
       <c r="N20">
-        <v>1.2942612369618209</v>
+        <v>0.60541977840078731</v>
       </c>
       <c r="O20">
-        <v>619100</v>
+        <v>79289.5</v>
       </c>
       <c r="P20">
-        <v>3.5758232254071078</v>
+        <v>1.2872396352243389</v>
       </c>
       <c r="Q20">
-        <v>23.928006623263101</v>
+        <v>1.116237499850002</v>
       </c>
       <c r="R20">
-        <v>4.2584051035555923</v>
+        <v>0.23949541665892721</v>
       </c>
       <c r="S20">
-        <v>4258.4051035555922</v>
+        <v>239.49541665892721</v>
       </c>
       <c r="T20">
-        <v>0.18600427181222279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.26772899155577201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
         <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
       </c>
       <c r="K21">
-        <v>33.710378278739753</v>
+        <v>3.5108367010647501</v>
       </c>
       <c r="L21">
-        <v>1559</v>
+        <v>9442</v>
       </c>
       <c r="M21">
-        <v>1559000000</v>
+        <v>9442000000</v>
       </c>
       <c r="N21">
-        <v>1.2613075136773271</v>
+        <v>0.79558368315488082</v>
       </c>
       <c r="O21">
-        <v>537300</v>
+        <v>79289.5</v>
       </c>
       <c r="P21">
-        <v>3.229023491654337</v>
+        <v>1.2872396352243389</v>
       </c>
       <c r="Q21">
-        <v>17.61943636396725</v>
+        <v>1.116237499850002</v>
       </c>
       <c r="R21">
-        <v>3.194774798518011</v>
+        <v>0.23949541665892721</v>
       </c>
       <c r="S21">
-        <v>3194.7747985180108</v>
+        <v>239.49541665892721</v>
       </c>
       <c r="T21">
-        <v>0.25324134867504738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.35182335428803369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12</v>
       </c>
       <c r="B22">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
@@ -1886,54 +1885,54 @@
         <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22">
-        <v>34.087698049731401</v>
+        <v>93.126472605803926</v>
       </c>
       <c r="L22">
-        <v>1634</v>
+        <v>2453</v>
       </c>
       <c r="M22">
-        <v>1634000000</v>
+        <v>2453000000</v>
       </c>
       <c r="N22">
-        <v>1.336783166718267</v>
+        <v>5.4825416952488881</v>
       </c>
       <c r="O22">
-        <v>619100</v>
+        <v>712200</v>
       </c>
       <c r="P22">
-        <v>3.5758232254071078</v>
+        <v>3.970530501842108</v>
       </c>
       <c r="Q22">
-        <v>23.928006623263101</v>
+        <v>32.758500020329009</v>
       </c>
       <c r="R22">
-        <v>4.2584051035555923</v>
+        <v>5.7193015367825728</v>
       </c>
       <c r="S22">
-        <v>4258.4051035555922</v>
+        <v>5719.3015367825728</v>
       </c>
       <c r="T22">
-        <v>0.19211529511611519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.39078816323376198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>12</v>
       </c>
       <c r="B23">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>31</v>
@@ -1945,184 +1944,184 @@
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K23">
-        <v>0.60730382610520905</v>
+        <v>89.309813892451317</v>
       </c>
       <c r="L23">
-        <v>10447</v>
+        <v>2453</v>
       </c>
       <c r="M23">
-        <v>10447000000</v>
+        <v>2453000000</v>
       </c>
       <c r="N23">
-        <v>0.15226807371170681</v>
+        <v>5.2578473634763938</v>
       </c>
       <c r="O23">
-        <v>81489.75</v>
+        <v>712200</v>
       </c>
       <c r="P23">
-        <v>1.2965678273293459</v>
+        <v>3.970530501842108</v>
       </c>
       <c r="Q23">
-        <v>1.140857900093986</v>
+        <v>32.758500020329009</v>
       </c>
       <c r="R23">
-        <v>0.24444906884000331</v>
+        <v>5.7193015367825728</v>
       </c>
       <c r="S23">
-        <v>244.44906884000329</v>
+        <v>5719.3015367825728</v>
       </c>
       <c r="T23">
-        <v>5.9625065849871713E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.37477225490450949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
         <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K24">
-        <v>0.6568925203545295</v>
+        <v>113.8000406364639</v>
       </c>
       <c r="L24">
-        <v>9154</v>
+        <v>2453</v>
       </c>
       <c r="M24">
-        <v>9154000000</v>
+        <v>2453000000</v>
       </c>
       <c r="N24">
-        <v>0.14431665915180869</v>
+        <v>6.6996359923499034</v>
       </c>
       <c r="O24">
-        <v>56678</v>
+        <v>712200</v>
       </c>
       <c r="P24">
-        <v>1.191375794396089</v>
+        <v>3.970530501842108</v>
       </c>
       <c r="Q24">
-        <v>0.8849621864043774</v>
+        <v>32.758500020329009</v>
       </c>
       <c r="R24">
-        <v>0.1925821618857943</v>
+        <v>5.7193015367825728</v>
       </c>
       <c r="S24">
-        <v>192.58216188579431</v>
+        <v>5719.3015367825728</v>
       </c>
       <c r="T24">
-        <v>8.1863347747949622E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.47754100001721311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
       </c>
       <c r="K25">
-        <v>0.72988057817169938</v>
+        <v>0.60823153670274821</v>
       </c>
       <c r="L25">
-        <v>9154</v>
+        <v>55967</v>
       </c>
       <c r="M25">
-        <v>9154000000</v>
+        <v>55967000000</v>
       </c>
       <c r="N25">
-        <v>0.16035184350200971</v>
+        <v>0.81698146595142507</v>
       </c>
       <c r="O25">
-        <v>56678</v>
+        <v>4551</v>
       </c>
       <c r="P25">
-        <v>1.191375794396089</v>
+        <v>0.97037787604241299</v>
       </c>
       <c r="Q25">
-        <v>0.8849621864043774</v>
+        <v>0.47819062421916492</v>
       </c>
       <c r="R25">
-        <v>0.1925821618857943</v>
+        <v>0.12672051541807869</v>
       </c>
       <c r="S25">
-        <v>192.58216188579431</v>
+        <v>126.7205154180787</v>
       </c>
       <c r="T25">
-        <v>9.095927527549956E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.1151948982586239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
         <v>23</v>
@@ -2131,125 +2130,125 @@
         <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K26">
-        <v>0.2410629948806455</v>
+        <v>1.204816086532466</v>
       </c>
       <c r="L26">
-        <v>74417</v>
+        <v>12704</v>
       </c>
       <c r="M26">
-        <v>74417000000</v>
+        <v>12704000000</v>
       </c>
       <c r="N26">
-        <v>0.43054043736079189</v>
+        <v>0.36734360551940271</v>
       </c>
       <c r="O26">
-        <v>22626</v>
+        <v>69864.5</v>
       </c>
       <c r="P26">
-        <v>1.0470087463062441</v>
+        <v>1.2472813529429221</v>
       </c>
       <c r="Q26">
-        <v>0.60524131280717985</v>
+        <v>1.015480730008677</v>
       </c>
       <c r="R26">
-        <v>0.16038894789390271</v>
+        <v>0.21913838911089339</v>
       </c>
       <c r="S26">
-        <v>160.38894789390261</v>
+        <v>219.1383891108934</v>
       </c>
       <c r="T26">
-        <v>3.6071761509169638E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.1319512578060737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K27">
-        <v>0.33283741232038139</v>
+        <v>39.972458948243599</v>
       </c>
       <c r="L27">
-        <v>27345</v>
+        <v>2229</v>
       </c>
       <c r="M27">
-        <v>27345000000</v>
+        <v>2229000000</v>
       </c>
       <c r="N27">
-        <v>0.21843453695761991</v>
+        <v>2.1383666638952401</v>
       </c>
       <c r="O27">
-        <v>6438</v>
+        <v>513600</v>
       </c>
       <c r="P27">
-        <v>0.97837801170979055</v>
+        <v>3.1285448401880691</v>
       </c>
       <c r="Q27">
-        <v>0.49011551289352451</v>
+        <v>16.02527716067522</v>
       </c>
       <c r="R27">
-        <v>0.12988061091678399</v>
+        <v>2.9225783454556158</v>
       </c>
       <c r="S27">
-        <v>129.88061091678401</v>
+        <v>2922.5783454556158</v>
       </c>
       <c r="T27">
-        <v>6.1503390223558621E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.32825091455616401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>12</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
         <v>24</v>
@@ -2258,178 +2257,178 @@
         <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28">
-        <v>0.36536470488805523</v>
+        <v>0.49113648031891388</v>
       </c>
       <c r="L28">
-        <v>27345</v>
+        <v>98698</v>
       </c>
       <c r="M28">
-        <v>27345000000</v>
+        <v>98698000000</v>
       </c>
       <c r="N28">
-        <v>0.23978154852393291</v>
+        <v>1.163380520028388</v>
       </c>
       <c r="O28">
-        <v>6438</v>
+        <v>22626</v>
       </c>
       <c r="P28">
-        <v>0.97837801170979055</v>
+        <v>1.0470087463062441</v>
       </c>
       <c r="Q28">
-        <v>0.49011551289352451</v>
+        <v>0.60524131280717985</v>
       </c>
       <c r="R28">
-        <v>0.12988061091678399</v>
+        <v>0.16038894789390271</v>
       </c>
       <c r="S28">
-        <v>129.88061091678401</v>
+        <v>160.38894789390261</v>
       </c>
       <c r="T28">
-        <v>6.7513948813588257E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.3491818996476124E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>12</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
         <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K29">
-        <v>34.536420220225779</v>
+        <v>0.86212103480949343</v>
       </c>
       <c r="L29">
-        <v>1559</v>
+        <v>98698</v>
       </c>
       <c r="M29">
-        <v>1559000000</v>
+        <v>98698000000</v>
       </c>
       <c r="N29">
-        <v>1.2922146989599681</v>
+        <v>2.0421509254470571</v>
       </c>
       <c r="O29">
-        <v>537300</v>
+        <v>22626</v>
       </c>
       <c r="P29">
-        <v>3.229023491654337</v>
+        <v>1.0470087463062441</v>
       </c>
       <c r="Q29">
-        <v>17.61943636396725</v>
+        <v>0.60524131280717985</v>
       </c>
       <c r="R29">
-        <v>3.194774798518011</v>
+        <v>0.16038894789390271</v>
       </c>
       <c r="S29">
-        <v>3194.7747985180108</v>
+        <v>160.38894789390261</v>
       </c>
       <c r="T29">
-        <v>0.25944679595879988</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.12900455490932511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>12</v>
       </c>
       <c r="B30">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K30">
-        <v>35.307536150914629</v>
+        <v>0.965550785393678</v>
       </c>
       <c r="L30">
-        <v>1634</v>
+        <v>98698</v>
       </c>
       <c r="M30">
-        <v>1634000000</v>
+        <v>98698000000</v>
       </c>
       <c r="N30">
-        <v>1.3846203376942681</v>
+        <v>2.2871503540028462</v>
       </c>
       <c r="O30">
-        <v>619100</v>
+        <v>22626</v>
       </c>
       <c r="P30">
-        <v>3.5758232254071078</v>
+        <v>1.0470087463062441</v>
       </c>
       <c r="Q30">
-        <v>23.928006623263101</v>
+        <v>0.60524131280717985</v>
       </c>
       <c r="R30">
-        <v>4.2584051035555923</v>
+        <v>0.16038894789390271</v>
       </c>
       <c r="S30">
-        <v>4258.4051035555922</v>
+        <v>160.38894789390261</v>
       </c>
       <c r="T30">
-        <v>0.198990196332994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.14448139447100411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
       <c r="B31">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -2441,57 +2440,57 @@
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K31">
-        <v>35.428667341097309</v>
+        <v>1.360070253190838</v>
       </c>
       <c r="L31">
-        <v>1844</v>
+        <v>12408</v>
       </c>
       <c r="M31">
-        <v>1844000000</v>
+        <v>12408000000</v>
       </c>
       <c r="N31">
-        <v>1.567931101847603</v>
+        <v>0.40501804083820597</v>
       </c>
       <c r="O31">
-        <v>682800</v>
+        <v>81489.75</v>
       </c>
       <c r="P31">
-        <v>3.8458860987573722</v>
+        <v>1.2965678273293459</v>
       </c>
       <c r="Q31">
-        <v>29.769233412288209</v>
+        <v>1.140857900093986</v>
       </c>
       <c r="R31">
-        <v>5.2278314332166964</v>
+        <v>0.24444906884000331</v>
       </c>
       <c r="S31">
-        <v>5227.8314332166956</v>
+        <v>244.44906884000329</v>
       </c>
       <c r="T31">
-        <v>0.16264641028472321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.13353164416406399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>12</v>
       </c>
       <c r="B32">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
@@ -2506,19 +2505,19 @@
         <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K32">
-        <v>0.79862366331207035</v>
+        <v>6.267719017436832</v>
       </c>
       <c r="L32">
-        <v>10447</v>
+        <v>12408</v>
       </c>
       <c r="M32">
-        <v>10447000000</v>
+        <v>12408000000</v>
       </c>
       <c r="N32">
-        <v>0.20023731385490881</v>
+        <v>1.8664765816405491</v>
       </c>
       <c r="O32">
         <v>81489.75</v>
@@ -2536,24 +2535,24 @@
         <v>244.44906884000329</v>
       </c>
       <c r="T32">
-        <v>7.8408839969993288E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.6153644075320257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>12</v>
       </c>
       <c r="B33">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -2568,19 +2567,19 @@
         <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K33">
-        <v>0.80245006005620789</v>
+        <v>6.2280812687099587</v>
       </c>
       <c r="L33">
-        <v>10447</v>
+        <v>12408</v>
       </c>
       <c r="M33">
-        <v>10447000000</v>
+        <v>12408000000</v>
       </c>
       <c r="N33">
-        <v>0.2011966986577729</v>
+        <v>1.854672777171676</v>
       </c>
       <c r="O33">
         <v>81489.75</v>
@@ -2598,27 +2597,27 @@
         <v>244.44906884000329</v>
       </c>
       <c r="T33">
-        <v>7.8784515452395745E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.61147277491522245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>23</v>
@@ -2627,187 +2626,187 @@
         <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K34">
-        <v>1.204816086532466</v>
+        <v>107.6221503289933</v>
       </c>
       <c r="L34">
-        <v>12704</v>
+        <v>2727</v>
       </c>
       <c r="M34">
-        <v>12704000000</v>
+        <v>2727000000</v>
       </c>
       <c r="N34">
-        <v>0.36734360551940271</v>
+        <v>7.0436544947319533</v>
       </c>
       <c r="O34">
-        <v>69864.5</v>
+        <v>697500</v>
       </c>
       <c r="P34">
-        <v>1.2472813529429221</v>
+        <v>3.9082083002997399</v>
       </c>
       <c r="Q34">
-        <v>1.015480730008677</v>
+        <v>31.263866716308609</v>
       </c>
       <c r="R34">
-        <v>0.21913838911089339</v>
+        <v>5.4735664849996351</v>
       </c>
       <c r="S34">
-        <v>219.1383891108934</v>
+        <v>5473.5664849996347</v>
       </c>
       <c r="T34">
-        <v>0.1319512578060737</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.47189188529533532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>12</v>
       </c>
       <c r="B35">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K35">
-        <v>0.3769229075385549</v>
+        <v>117.6220111249948</v>
       </c>
       <c r="L35">
-        <v>83984</v>
+        <v>2727</v>
       </c>
       <c r="M35">
-        <v>83984000000</v>
+        <v>2727000000</v>
       </c>
       <c r="N35">
-        <v>0.75973184320123188</v>
+        <v>7.6981253841086597</v>
       </c>
       <c r="O35">
-        <v>9527</v>
+        <v>697500</v>
       </c>
       <c r="P35">
-        <v>0.99147415324478205</v>
+        <v>3.9082083002997399</v>
       </c>
       <c r="Q35">
-        <v>0.5100615529935143</v>
+        <v>31.263866716308609</v>
       </c>
       <c r="R35">
-        <v>0.13516631154328129</v>
+        <v>5.4735664849996351</v>
       </c>
       <c r="S35">
-        <v>135.1663115432813</v>
+        <v>5473.5664849996347</v>
       </c>
       <c r="T35">
-        <v>6.6926068172161887E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51573837181591553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>12</v>
       </c>
       <c r="B36">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
         <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K36">
-        <v>0.37794129203326582</v>
+        <v>102.63027134870271</v>
       </c>
       <c r="L36">
-        <v>18584</v>
+        <v>2727</v>
       </c>
       <c r="M36">
-        <v>18584000000</v>
+        <v>2727000000</v>
       </c>
       <c r="N36">
-        <v>0.16856786330750911</v>
+        <v>6.7169459992298943</v>
       </c>
       <c r="O36">
-        <v>7716</v>
+        <v>697500</v>
       </c>
       <c r="P36">
-        <v>0.98379622759898422</v>
+        <v>3.9082083002997399</v>
       </c>
       <c r="Q36">
-        <v>0.49830340685954871</v>
+        <v>31.263866716308609</v>
       </c>
       <c r="R36">
-        <v>0.13205040281778041</v>
+        <v>5.4735664849996351</v>
       </c>
       <c r="S36">
-        <v>132.05040281778039</v>
+        <v>5473.5664849996347</v>
       </c>
       <c r="T36">
-        <v>6.8690369853056099E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.45000394516428888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
         <v>24</v>
@@ -2816,57 +2815,57 @@
         <v>30</v>
       </c>
       <c r="J37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K37">
-        <v>0.38049367817534518</v>
+        <v>0.66294992458959323</v>
       </c>
       <c r="L37">
-        <v>27345</v>
+        <v>98134</v>
       </c>
       <c r="M37">
-        <v>27345000000</v>
+        <v>98134000000</v>
       </c>
       <c r="N37">
-        <v>0.24971039111291549</v>
+        <v>1.5613902695922031</v>
       </c>
       <c r="O37">
-        <v>6438</v>
+        <v>11105.5</v>
       </c>
       <c r="P37">
-        <v>0.97837801170979055</v>
+        <v>0.99816637060087943</v>
       </c>
       <c r="Q37">
-        <v>0.49011551289352451</v>
+        <v>0.52166994226493868</v>
       </c>
       <c r="R37">
-        <v>0.12988061091678399</v>
+        <v>0.13824253470020881</v>
       </c>
       <c r="S37">
-        <v>129.88061091678401</v>
+        <v>138.24253470020881</v>
       </c>
       <c r="T37">
-        <v>7.0309557460113623E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.11509336272410101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
         <v>23</v>
@@ -2875,119 +2874,119 @@
         <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K38">
-        <v>35.966752616461697</v>
+        <v>0.56473512094669054</v>
       </c>
       <c r="L38">
-        <v>1844</v>
+        <v>98134</v>
       </c>
       <c r="M38">
-        <v>1844000000</v>
+        <v>98134000000</v>
       </c>
       <c r="N38">
-        <v>1.591744603794129</v>
+        <v>1.33007319261558</v>
       </c>
       <c r="O38">
-        <v>682800</v>
+        <v>11105.5</v>
       </c>
       <c r="P38">
-        <v>3.8458860987573722</v>
+        <v>0.99816637060087943</v>
       </c>
       <c r="Q38">
-        <v>29.769233412288209</v>
+        <v>0.52166994226493868</v>
       </c>
       <c r="R38">
-        <v>5.2278314332166964</v>
+        <v>0.13824253470020881</v>
       </c>
       <c r="S38">
-        <v>5227.8314332166956</v>
+        <v>138.24253470020881</v>
       </c>
       <c r="T38">
-        <v>0.16511665952166149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.8042494172382283E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
         <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K39">
-        <v>38.979320462278288</v>
+        <v>0.70355796840348572</v>
       </c>
       <c r="L39">
-        <v>769</v>
+        <v>98134</v>
       </c>
       <c r="M39">
-        <v>769000000</v>
+        <v>98134000000</v>
       </c>
       <c r="N39">
-        <v>0.71940233845180812</v>
+        <v>1.6570309841113839</v>
       </c>
       <c r="O39">
-        <v>377200</v>
+        <v>11105.5</v>
       </c>
       <c r="P39">
-        <v>2.5502626435636429</v>
+        <v>0.99816637060087943</v>
       </c>
       <c r="Q39">
-        <v>8.6802678346204463</v>
+        <v>0.52166994226493868</v>
       </c>
       <c r="R39">
-        <v>1.643373790343033</v>
+        <v>0.13824253470020881</v>
       </c>
       <c r="S39">
-        <v>1643.3737903430331</v>
+        <v>138.24253470020881</v>
       </c>
       <c r="T39">
-        <v>0.56925800848959907</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.12214324106759999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -2999,60 +2998,60 @@
         <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K40">
-        <v>39.972458948243599</v>
+        <v>3.6877770021686058</v>
       </c>
       <c r="L40">
-        <v>2229</v>
+        <v>14653</v>
       </c>
       <c r="M40">
-        <v>2229000000</v>
+        <v>14653000000</v>
       </c>
       <c r="N40">
-        <v>2.1383666638952401</v>
+        <v>1.296887913906638</v>
       </c>
       <c r="O40">
-        <v>513600</v>
+        <v>75552.25</v>
       </c>
       <c r="P40">
-        <v>3.1285448401880691</v>
+        <v>1.27139516939344</v>
       </c>
       <c r="Q40">
-        <v>16.02527716067522</v>
+        <v>1.076684586715988</v>
       </c>
       <c r="R40">
-        <v>2.9225783454556158</v>
+        <v>0.23149660812887299</v>
       </c>
       <c r="S40">
-        <v>2922.5783454556158</v>
+        <v>231.49660812887299</v>
       </c>
       <c r="T40">
-        <v>0.32825091455616401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.38232373583104651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
         <v>23</v>
@@ -3064,42 +3063,42 @@
         <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K41">
-        <v>1.3588287065122939</v>
+        <v>10.625141882560561</v>
       </c>
       <c r="L41">
-        <v>9174</v>
+        <v>14653</v>
       </c>
       <c r="M41">
-        <v>9174000000</v>
+        <v>14653000000</v>
       </c>
       <c r="N41">
-        <v>0.29918146928505079</v>
+        <v>3.7365648961238378</v>
       </c>
       <c r="O41">
-        <v>83690</v>
+        <v>75552.25</v>
       </c>
       <c r="P41">
-        <v>1.3058960194343521</v>
+        <v>1.27139516939344</v>
       </c>
       <c r="Q41">
-        <v>1.1654783003379701</v>
+        <v>1.076684586715988</v>
       </c>
       <c r="R41">
-        <v>0.2494027210210793</v>
+        <v>0.23149660812887299</v>
       </c>
       <c r="S41">
-        <v>249.40272102107929</v>
+        <v>231.49660812887299</v>
       </c>
       <c r="T41">
-        <v>0.13075995651843239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.1015427277426639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>150</v>
@@ -3114,7 +3113,7 @@
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
         <v>23</v>
@@ -3126,181 +3125,181 @@
         <v>29</v>
       </c>
       <c r="J42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K42">
-        <v>1.360070253190838</v>
+        <v>2.0634552496129079</v>
       </c>
       <c r="L42">
-        <v>12408</v>
+        <v>14653</v>
       </c>
       <c r="M42">
-        <v>12408000000</v>
+        <v>14653000000</v>
       </c>
       <c r="N42">
-        <v>0.40501804083820597</v>
+        <v>0.72565943454187054</v>
       </c>
       <c r="O42">
-        <v>81489.75</v>
+        <v>75552.25</v>
       </c>
       <c r="P42">
-        <v>1.2965678273293459</v>
+        <v>1.27139516939344</v>
       </c>
       <c r="Q42">
-        <v>1.140857900093986</v>
+        <v>1.076684586715988</v>
       </c>
       <c r="R42">
-        <v>0.24444906884000331</v>
+        <v>0.23149660812887299</v>
       </c>
       <c r="S42">
-        <v>244.44906884000329</v>
+        <v>231.49660812887299</v>
       </c>
       <c r="T42">
-        <v>0.13353164416406399</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.21392506089394031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B43">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H43" t="s">
         <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K43">
-        <v>0.38771563579274698</v>
+        <v>70.420014211961259</v>
       </c>
       <c r="L43">
-        <v>18584</v>
+        <v>2355</v>
       </c>
       <c r="M43">
-        <v>18584000000</v>
+        <v>2355000000</v>
       </c>
       <c r="N43">
-        <v>0.17292737701373781</v>
+        <v>3.98013920326005</v>
       </c>
       <c r="O43">
-        <v>7716</v>
+        <v>575650</v>
       </c>
       <c r="P43">
-        <v>0.98379622759898422</v>
+        <v>3.391612364385618</v>
       </c>
       <c r="Q43">
-        <v>0.49830340685954871</v>
+        <v>20.785742103638931</v>
       </c>
       <c r="R43">
-        <v>0.13205040281778041</v>
+        <v>3.725429140212615</v>
       </c>
       <c r="S43">
-        <v>132.05040281778039</v>
+        <v>3725.429140212615</v>
       </c>
       <c r="T43">
-        <v>7.0466844935462764E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.45366057908448509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K44">
-        <v>0.41834191290578748</v>
+        <v>103.4201882359766</v>
       </c>
       <c r="L44">
-        <v>18584</v>
+        <v>2355</v>
       </c>
       <c r="M44">
-        <v>18584000000</v>
+        <v>2355000000</v>
       </c>
       <c r="N44">
-        <v>0.18658718662658769</v>
+        <v>5.8453090390973976</v>
       </c>
       <c r="O44">
-        <v>7716</v>
+        <v>575650</v>
       </c>
       <c r="P44">
-        <v>0.98379622759898422</v>
+        <v>3.391612364385618</v>
       </c>
       <c r="Q44">
-        <v>0.49830340685954871</v>
+        <v>20.785742103638931</v>
       </c>
       <c r="R44">
-        <v>0.13205040281778041</v>
+        <v>3.725429140212615</v>
       </c>
       <c r="S44">
-        <v>132.05040281778039</v>
+        <v>3725.429140212615</v>
       </c>
       <c r="T44">
-        <v>7.6033133527003513E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.66625465798600125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
         <v>23</v>
@@ -3315,237 +3314,237 @@
         <v>28</v>
       </c>
       <c r="K45">
-        <v>42.395455643183588</v>
+        <v>76.558439439642683</v>
       </c>
       <c r="L45">
-        <v>1844</v>
+        <v>2355</v>
       </c>
       <c r="M45">
-        <v>1844000000</v>
+        <v>2355000000</v>
       </c>
       <c r="N45">
-        <v>1.8762532849447331</v>
+        <v>4.3270829971286036</v>
       </c>
       <c r="O45">
-        <v>682800</v>
+        <v>575650</v>
       </c>
       <c r="P45">
-        <v>3.8458860987573722</v>
+        <v>3.391612364385618</v>
       </c>
       <c r="Q45">
-        <v>29.769233412288209</v>
+        <v>20.785742103638931</v>
       </c>
       <c r="R45">
-        <v>5.2278314332166964</v>
+        <v>3.725429140212615</v>
       </c>
       <c r="S45">
-        <v>5227.8314332166956</v>
+        <v>3725.429140212615</v>
       </c>
       <c r="T45">
-        <v>0.19462963724718679</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.49320560864205881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>12</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
         <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
         <v>24</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K46">
-        <v>43.819558229306971</v>
+        <v>0.1563356384033211</v>
       </c>
       <c r="L46">
-        <v>1559</v>
+        <v>74417</v>
       </c>
       <c r="M46">
-        <v>1559000000</v>
+        <v>74417000000</v>
       </c>
       <c r="N46">
-        <v>1.6395525907077499</v>
+        <v>0.27921670087343869</v>
       </c>
       <c r="O46">
-        <v>537300</v>
+        <v>22626</v>
       </c>
       <c r="P46">
-        <v>3.229023491654337</v>
+        <v>1.0470087463062441</v>
       </c>
       <c r="Q46">
-        <v>17.61943636396725</v>
+        <v>0.60524131280717985</v>
       </c>
       <c r="R46">
-        <v>3.194774798518011</v>
+        <v>0.16038894789390271</v>
       </c>
       <c r="S46">
-        <v>3194.7747985180108</v>
+        <v>160.38894789390261</v>
       </c>
       <c r="T46">
-        <v>0.32918420352859129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>2.3393477985538581E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>12</v>
       </c>
       <c r="B47">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
         <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K47">
-        <v>45.983491762210683</v>
+        <v>0.18530692803750301</v>
       </c>
       <c r="L47">
-        <v>1579</v>
+        <v>74417</v>
       </c>
       <c r="M47">
-        <v>1579000000</v>
+        <v>74417000000</v>
       </c>
       <c r="N47">
-        <v>1.742590403820736</v>
+        <v>0.33095965593040472</v>
       </c>
       <c r="O47">
-        <v>617800</v>
+        <v>22626</v>
       </c>
       <c r="P47">
-        <v>3.570311738195878</v>
+        <v>1.0470087463062441</v>
       </c>
       <c r="Q47">
-        <v>23.817534937952239</v>
+        <v>0.60524131280717985</v>
       </c>
       <c r="R47">
-        <v>4.2399414230956838</v>
+        <v>0.16038894789390271</v>
       </c>
       <c r="S47">
-        <v>4239.9414230956836</v>
+        <v>160.38894789390261</v>
       </c>
       <c r="T47">
-        <v>0.26028751158719748</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>2.772863299684469E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>12</v>
       </c>
       <c r="B48">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
       </c>
       <c r="K48">
-        <v>46.450066086742702</v>
+        <v>0.2410629948806455</v>
       </c>
       <c r="L48">
-        <v>1579</v>
+        <v>74417</v>
       </c>
       <c r="M48">
-        <v>1579000000</v>
+        <v>74417000000</v>
       </c>
       <c r="N48">
-        <v>1.760271704423201</v>
+        <v>0.43054043736079189</v>
       </c>
       <c r="O48">
-        <v>617800</v>
+        <v>22626</v>
       </c>
       <c r="P48">
-        <v>3.570311738195878</v>
+        <v>1.0470087463062441</v>
       </c>
       <c r="Q48">
-        <v>23.817534937952239</v>
+        <v>0.60524131280717985</v>
       </c>
       <c r="R48">
-        <v>4.2399414230956838</v>
+        <v>0.16038894789390271</v>
       </c>
       <c r="S48">
-        <v>4239.9414230956836</v>
+        <v>160.38894789390261</v>
       </c>
       <c r="T48">
-        <v>0.2629285348163799</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>3.6071761509169638E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>12</v>
       </c>
       <c r="B49">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
         <v>31</v>
@@ -3560,54 +3559,54 @@
         <v>29</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K49">
-        <v>1.4633958855304749</v>
+        <v>0.60730382610520905</v>
       </c>
       <c r="L49">
-        <v>9174</v>
+        <v>10447</v>
       </c>
       <c r="M49">
-        <v>9174000000</v>
+        <v>10447000000</v>
       </c>
       <c r="N49">
-        <v>0.32220465249255792</v>
+        <v>0.15226807371170681</v>
       </c>
       <c r="O49">
-        <v>83690</v>
+        <v>81489.75</v>
       </c>
       <c r="P49">
-        <v>1.3058960194343521</v>
+        <v>1.2965678273293459</v>
       </c>
       <c r="Q49">
-        <v>1.1654783003379701</v>
+        <v>1.140857900093986</v>
       </c>
       <c r="R49">
-        <v>0.2494027210210793</v>
+        <v>0.24444906884000331</v>
       </c>
       <c r="S49">
-        <v>249.40272102107929</v>
+        <v>244.44906884000329</v>
       </c>
       <c r="T49">
-        <v>0.14082244615832781</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.9625065849871713E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>12</v>
       </c>
       <c r="B50">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
         <v>31</v>
@@ -3622,57 +3621,57 @@
         <v>29</v>
       </c>
       <c r="J50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K50">
-        <v>1.4786452658039599</v>
+        <v>0.80245006005620789</v>
       </c>
       <c r="L50">
-        <v>9174</v>
+        <v>10447</v>
       </c>
       <c r="M50">
-        <v>9174000000</v>
+        <v>10447000000</v>
       </c>
       <c r="N50">
-        <v>0.32556220004365272</v>
+        <v>0.2011966986577729</v>
       </c>
       <c r="O50">
-        <v>83690</v>
+        <v>81489.75</v>
       </c>
       <c r="P50">
-        <v>1.3058960194343521</v>
+        <v>1.2965678273293459</v>
       </c>
       <c r="Q50">
-        <v>1.1654783003379701</v>
+        <v>1.140857900093986</v>
       </c>
       <c r="R50">
-        <v>0.2494027210210793</v>
+        <v>0.24444906884000331</v>
       </c>
       <c r="S50">
-        <v>249.40272102107929</v>
+        <v>244.44906884000329</v>
       </c>
       <c r="T50">
-        <v>0.14228989256414601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.8784515452395745E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>23</v>
@@ -3687,51 +3686,51 @@
         <v>28</v>
       </c>
       <c r="K51">
-        <v>2.0634552496129079</v>
+        <v>0.79862366331207035</v>
       </c>
       <c r="L51">
-        <v>14653</v>
+        <v>10447</v>
       </c>
       <c r="M51">
-        <v>14653000000</v>
+        <v>10447000000</v>
       </c>
       <c r="N51">
-        <v>0.72565943454187054</v>
+        <v>0.20023731385490881</v>
       </c>
       <c r="O51">
-        <v>75552.25</v>
+        <v>81489.75</v>
       </c>
       <c r="P51">
-        <v>1.27139516939344</v>
+        <v>1.2965678273293459</v>
       </c>
       <c r="Q51">
-        <v>1.076684586715988</v>
+        <v>1.140857900093986</v>
       </c>
       <c r="R51">
-        <v>0.23149660812887299</v>
+        <v>0.24444906884000331</v>
       </c>
       <c r="S51">
-        <v>231.49660812887299</v>
+        <v>244.44906884000329</v>
       </c>
       <c r="T51">
-        <v>0.21392506089394031</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.8408839969993288E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>12</v>
       </c>
       <c r="B52">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
         <v>31</v>
@@ -3743,57 +3742,57 @@
         <v>24</v>
       </c>
       <c r="I52" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K52">
-        <v>0.43406271707026001</v>
+        <v>15.73914115457851</v>
       </c>
       <c r="L52">
-        <v>47569</v>
+        <v>2554</v>
       </c>
       <c r="M52">
-        <v>47569000000</v>
+        <v>2554000000</v>
       </c>
       <c r="N52">
-        <v>0.49555030531956468</v>
+        <v>0.96474639621104441</v>
       </c>
       <c r="O52">
-        <v>35077</v>
+        <v>697500</v>
       </c>
       <c r="P52">
-        <v>1.099796074973185</v>
+        <v>3.9082083002997399</v>
       </c>
       <c r="Q52">
-        <v>0.6961693421068017</v>
+        <v>31.263866716308609</v>
       </c>
       <c r="R52">
-        <v>0.18448487565830249</v>
+        <v>5.4735664849996351</v>
       </c>
       <c r="S52">
-        <v>184.48487565830251</v>
+        <v>5473.5664849996347</v>
       </c>
       <c r="T52">
-        <v>5.646807182709785E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.9011564716548693E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
       <c r="B53">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
         <v>31</v>
@@ -3805,57 +3804,57 @@
         <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K53">
-        <v>0.45421368386022182</v>
+        <v>19.377497830146719</v>
       </c>
       <c r="L53">
-        <v>47569</v>
+        <v>2554</v>
       </c>
       <c r="M53">
-        <v>47569000000</v>
+        <v>2554000000</v>
       </c>
       <c r="N53">
-        <v>0.51855577746112536</v>
+        <v>1.187763106996673</v>
       </c>
       <c r="O53">
-        <v>35077</v>
+        <v>697500</v>
       </c>
       <c r="P53">
-        <v>1.099796074973185</v>
+        <v>3.9082083002997399</v>
       </c>
       <c r="Q53">
-        <v>0.6961693421068017</v>
+        <v>31.263866716308609</v>
       </c>
       <c r="R53">
-        <v>0.18448487565830249</v>
+        <v>5.4735664849996351</v>
       </c>
       <c r="S53">
-        <v>184.48487565830251</v>
+        <v>5473.5664849996347</v>
       </c>
       <c r="T53">
-        <v>5.9089550694855213E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.496470248384172E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>12</v>
       </c>
       <c r="B54">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
         <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
         <v>31</v>
@@ -3867,60 +3866,60 @@
         <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K54">
-        <v>0.49113648031891388</v>
+        <v>18.26893603055953</v>
       </c>
       <c r="L54">
-        <v>98698</v>
+        <v>2554</v>
       </c>
       <c r="M54">
-        <v>98698000000</v>
+        <v>2554000000</v>
       </c>
       <c r="N54">
-        <v>1.163380520028388</v>
+        <v>1.1198127029291769</v>
       </c>
       <c r="O54">
-        <v>22626</v>
+        <v>697500</v>
       </c>
       <c r="P54">
-        <v>1.0470087463062441</v>
+        <v>3.9082083002997399</v>
       </c>
       <c r="Q54">
-        <v>0.60524131280717985</v>
+        <v>31.263866716308609</v>
       </c>
       <c r="R54">
-        <v>0.16038894789390271</v>
+        <v>5.4735664849996351</v>
       </c>
       <c r="S54">
-        <v>160.38894789390261</v>
+        <v>5473.5664849996347</v>
       </c>
       <c r="T54">
-        <v>7.3491818996476124E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.0103980820369625E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>188</v>
+      </c>
+      <c r="C55" t="s">
         <v>40</v>
-      </c>
-      <c r="B55">
-        <v>150</v>
-      </c>
-      <c r="C55" t="s">
-        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
         <v>23</v>
@@ -3929,60 +3928,60 @@
         <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J55" t="s">
         <v>26</v>
       </c>
       <c r="K55">
-        <v>70.420014211961259</v>
+        <v>0.91986440292555705</v>
       </c>
       <c r="L55">
-        <v>2355</v>
+        <v>47569</v>
       </c>
       <c r="M55">
-        <v>2355000000</v>
+        <v>47569000000</v>
       </c>
       <c r="N55">
-        <v>3.98013920326005</v>
+        <v>1.0501687147863801</v>
       </c>
       <c r="O55">
-        <v>575650</v>
+        <v>35077</v>
       </c>
       <c r="P55">
-        <v>3.391612364385618</v>
+        <v>1.099796074973185</v>
       </c>
       <c r="Q55">
-        <v>20.785742103638931</v>
+        <v>0.6961693421068017</v>
       </c>
       <c r="R55">
-        <v>3.725429140212615</v>
+        <v>0.18448487565830249</v>
       </c>
       <c r="S55">
-        <v>3725.429140212615</v>
+        <v>184.48487565830251</v>
       </c>
       <c r="T55">
-        <v>0.45366057908448509</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.1196669677741132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>188</v>
+      </c>
+      <c r="C56" t="s">
         <v>40</v>
-      </c>
-      <c r="B56">
-        <v>150</v>
-      </c>
-      <c r="C56" t="s">
-        <v>19</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>23</v>
@@ -3991,57 +3990,57 @@
         <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K56">
-        <v>76.558439439642683</v>
+        <v>0.43406271707026001</v>
       </c>
       <c r="L56">
-        <v>2355</v>
+        <v>47569</v>
       </c>
       <c r="M56">
-        <v>2355000000</v>
+        <v>47569000000</v>
       </c>
       <c r="N56">
-        <v>4.3270829971286036</v>
+        <v>0.49555030531956468</v>
       </c>
       <c r="O56">
-        <v>575650</v>
+        <v>35077</v>
       </c>
       <c r="P56">
-        <v>3.391612364385618</v>
+        <v>1.099796074973185</v>
       </c>
       <c r="Q56">
-        <v>20.785742103638931</v>
+        <v>0.6961693421068017</v>
       </c>
       <c r="R56">
-        <v>3.725429140212615</v>
+        <v>0.18448487565830249</v>
       </c>
       <c r="S56">
-        <v>3725.429140212615</v>
+        <v>184.48487565830251</v>
       </c>
       <c r="T56">
-        <v>0.49320560864205881</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.646807182709785E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>12</v>
       </c>
       <c r="B57">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
         <v>31</v>
@@ -4053,63 +4052,63 @@
         <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K57">
-        <v>89.309813892451317</v>
+        <v>0.45421368386022182</v>
       </c>
       <c r="L57">
-        <v>2453</v>
+        <v>47569</v>
       </c>
       <c r="M57">
-        <v>2453000000</v>
+        <v>47569000000</v>
       </c>
       <c r="N57">
-        <v>5.2578473634763938</v>
+        <v>0.51855577746112536</v>
       </c>
       <c r="O57">
-        <v>712200</v>
+        <v>35077</v>
       </c>
       <c r="P57">
-        <v>3.970530501842108</v>
+        <v>1.099796074973185</v>
       </c>
       <c r="Q57">
-        <v>32.758500020329009</v>
+        <v>0.6961693421068017</v>
       </c>
       <c r="R57">
-        <v>5.7193015367825728</v>
+        <v>0.18448487565830249</v>
       </c>
       <c r="S57">
-        <v>5719.3015367825728</v>
+        <v>184.48487565830251</v>
       </c>
       <c r="T57">
-        <v>0.37477225490450949</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.9089550694855213E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>12</v>
       </c>
       <c r="B58">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
         <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H58" t="s">
         <v>24</v>
@@ -4121,57 +4120,57 @@
         <v>26</v>
       </c>
       <c r="K58">
-        <v>2.0669478936715859</v>
+        <v>1.4786452658039599</v>
       </c>
       <c r="L58">
-        <v>3350</v>
+        <v>9174</v>
       </c>
       <c r="M58">
-        <v>3350000000</v>
+        <v>9174000000</v>
       </c>
       <c r="N58">
-        <v>0.16618261065119549</v>
+        <v>0.32556220004365272</v>
       </c>
       <c r="O58">
-        <v>60186</v>
+        <v>83690</v>
       </c>
       <c r="P58">
-        <v>1.206248330655316</v>
+        <v>1.3058960194343521</v>
       </c>
       <c r="Q58">
-        <v>0.91851990805229744</v>
+        <v>1.1654783003379701</v>
       </c>
       <c r="R58">
-        <v>0.19943157625818059</v>
+        <v>0.2494027210210793</v>
       </c>
       <c r="S58">
-        <v>199.4315762581806</v>
+        <v>249.40272102107929</v>
       </c>
       <c r="T58">
-        <v>0.2487406978316114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.14228989256414601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>12</v>
       </c>
       <c r="B59">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
         <v>24</v>
@@ -4183,57 +4182,57 @@
         <v>27</v>
       </c>
       <c r="K59">
-        <v>2.0838900895213519</v>
+        <v>1.4633958855304749</v>
       </c>
       <c r="L59">
-        <v>3350</v>
+        <v>9174</v>
       </c>
       <c r="M59">
-        <v>3350000000</v>
+        <v>9174000000</v>
       </c>
       <c r="N59">
-        <v>0.16754476319751671</v>
+        <v>0.32220465249255792</v>
       </c>
       <c r="O59">
-        <v>60186</v>
+        <v>83690</v>
       </c>
       <c r="P59">
-        <v>1.206248330655316</v>
+        <v>1.3058960194343521</v>
       </c>
       <c r="Q59">
-        <v>0.91851990805229744</v>
+        <v>1.1654783003379701</v>
       </c>
       <c r="R59">
-        <v>0.19943157625818059</v>
+        <v>0.2494027210210793</v>
       </c>
       <c r="S59">
-        <v>199.4315762581806</v>
+        <v>249.40272102107929</v>
       </c>
       <c r="T59">
-        <v>0.25077955601055879</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.14082244615832781</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>12</v>
       </c>
       <c r="B60">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
         <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H60" t="s">
         <v>24</v>
@@ -4245,54 +4244,54 @@
         <v>28</v>
       </c>
       <c r="K60">
-        <v>2.117774481220887</v>
+        <v>1.3588287065122939</v>
       </c>
       <c r="L60">
-        <v>3350</v>
+        <v>9174</v>
       </c>
       <c r="M60">
-        <v>3350000000</v>
+        <v>9174000000</v>
       </c>
       <c r="N60">
-        <v>0.17026906829015931</v>
+        <v>0.29918146928505079</v>
       </c>
       <c r="O60">
-        <v>60186</v>
+        <v>83690</v>
       </c>
       <c r="P60">
-        <v>1.206248330655316</v>
+        <v>1.3058960194343521</v>
       </c>
       <c r="Q60">
-        <v>0.91851990805229744</v>
+        <v>1.1654783003379701</v>
       </c>
       <c r="R60">
-        <v>0.19943157625818059</v>
+        <v>0.2494027210210793</v>
       </c>
       <c r="S60">
-        <v>199.4315762581806</v>
+        <v>249.40272102107929</v>
       </c>
       <c r="T60">
-        <v>0.25485727236845418</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.13075995651843239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>188</v>
+      </c>
+      <c r="C61" t="s">
         <v>40</v>
-      </c>
-      <c r="B61">
-        <v>150</v>
-      </c>
-      <c r="C61" t="s">
-        <v>19</v>
       </c>
       <c r="D61" t="s">
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>23</v>
@@ -4301,122 +4300,122 @@
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K61">
-        <v>0.56473512094669054</v>
+        <v>35.966752616461697</v>
       </c>
       <c r="L61">
-        <v>98134</v>
+        <v>1844</v>
       </c>
       <c r="M61">
-        <v>98134000000</v>
+        <v>1844000000</v>
       </c>
       <c r="N61">
-        <v>1.33007319261558</v>
+        <v>1.591744603794129</v>
       </c>
       <c r="O61">
-        <v>11105.5</v>
+        <v>682800</v>
       </c>
       <c r="P61">
-        <v>0.99816637060087943</v>
+        <v>3.8458860987573722</v>
       </c>
       <c r="Q61">
-        <v>0.52166994226493868</v>
+        <v>29.769233412288209</v>
       </c>
       <c r="R61">
-        <v>0.13824253470020881</v>
+        <v>5.2278314332166964</v>
       </c>
       <c r="S61">
-        <v>138.24253470020881</v>
+        <v>5227.8314332166956</v>
       </c>
       <c r="T61">
-        <v>9.8042494172382283E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.16511665952166149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>12</v>
       </c>
       <c r="B62">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J62" t="s">
         <v>27</v>
       </c>
       <c r="K62">
-        <v>0.57460258459002522</v>
+        <v>35.428667341097309</v>
       </c>
       <c r="L62">
-        <v>83984</v>
+        <v>1844</v>
       </c>
       <c r="M62">
-        <v>83984000000</v>
+        <v>1844000000</v>
       </c>
       <c r="N62">
-        <v>1.158178163141008</v>
+        <v>1.567931101847603</v>
       </c>
       <c r="O62">
-        <v>9527</v>
+        <v>682800</v>
       </c>
       <c r="P62">
-        <v>0.99147415324478205</v>
+        <v>3.8458860987573722</v>
       </c>
       <c r="Q62">
-        <v>0.5100615529935143</v>
+        <v>29.769233412288209</v>
       </c>
       <c r="R62">
-        <v>0.13516631154328129</v>
+        <v>5.2278314332166964</v>
       </c>
       <c r="S62">
-        <v>135.1663115432813</v>
+        <v>5227.8314332166956</v>
       </c>
       <c r="T62">
-        <v>0.1020258810994098</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.16264641028472321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>188</v>
+      </c>
+      <c r="C63" t="s">
         <v>40</v>
-      </c>
-      <c r="B63">
-        <v>137</v>
-      </c>
-      <c r="C63" t="s">
-        <v>38</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>23</v>
@@ -4425,45 +4424,45 @@
         <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K63">
-        <v>0.60823153670274821</v>
+        <v>42.395455643183588</v>
       </c>
       <c r="L63">
-        <v>55967</v>
+        <v>1844</v>
       </c>
       <c r="M63">
-        <v>55967000000</v>
+        <v>1844000000</v>
       </c>
       <c r="N63">
-        <v>0.81698146595142507</v>
+        <v>1.8762532849447331</v>
       </c>
       <c r="O63">
-        <v>4551</v>
+        <v>682800</v>
       </c>
       <c r="P63">
-        <v>0.97037787604241299</v>
+        <v>3.8458860987573722</v>
       </c>
       <c r="Q63">
-        <v>0.47819062421916492</v>
+        <v>29.769233412288209</v>
       </c>
       <c r="R63">
-        <v>0.12672051541807869</v>
+        <v>5.2278314332166964</v>
       </c>
       <c r="S63">
-        <v>126.7205154180787</v>
+        <v>5227.8314332166956</v>
       </c>
       <c r="T63">
-        <v>0.1151948982586239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.19462963724718679</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B64">
         <v>207</v>
@@ -4478,7 +4477,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>44</v>
@@ -4487,45 +4486,45 @@
         <v>45</v>
       </c>
       <c r="I64" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J64" t="s">
         <v>27</v>
       </c>
       <c r="K64">
-        <v>284.06843402212962</v>
+        <v>9.629515989167448</v>
       </c>
       <c r="L64">
-        <v>2148</v>
+        <v>124042</v>
       </c>
       <c r="M64">
-        <v>2148000000</v>
+        <v>124042000000</v>
       </c>
       <c r="N64">
-        <v>14.644295910708831</v>
+        <v>28.66714613587941</v>
       </c>
       <c r="O64">
-        <v>420300</v>
+        <v>7055</v>
       </c>
       <c r="P64">
-        <v>2.732989642643648</v>
+        <v>0.98099384833235115</v>
       </c>
       <c r="Q64">
-        <v>10.68297852001235</v>
+        <v>0.49405721925198709</v>
       </c>
       <c r="R64">
-        <v>1.9970818865475619</v>
+        <v>0.1309251631017766</v>
       </c>
       <c r="S64">
-        <v>1997.0818865475619</v>
+        <v>130.9251631017766</v>
       </c>
       <c r="T64">
-        <v>3.4138021392387929</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.7651945452255291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B65">
         <v>207</v>
@@ -4540,7 +4539,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>44</v>
@@ -4549,45 +4548,45 @@
         <v>45</v>
       </c>
       <c r="I65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65">
+        <v>13.686225253687899</v>
+      </c>
+      <c r="L65">
+        <v>28592</v>
+      </c>
+      <c r="M65">
+        <v>28592000000</v>
+      </c>
+      <c r="N65">
+        <v>9.3915972588826655</v>
+      </c>
+      <c r="O65">
+        <v>71598</v>
+      </c>
+      <c r="P65">
+        <v>1.25463070915882</v>
+      </c>
+      <c r="Q65">
+        <v>1.033537259842694</v>
+      </c>
+      <c r="R65">
+        <v>0.22279528448154531</v>
+      </c>
+      <c r="S65">
+        <v>222.79528448154531</v>
+      </c>
+      <c r="T65">
+        <v>1.4743104049660329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>25</v>
-      </c>
-      <c r="J65" t="s">
-        <v>28</v>
-      </c>
-      <c r="K65">
-        <v>267.16145371966041</v>
-      </c>
-      <c r="L65">
-        <v>2148</v>
-      </c>
-      <c r="M65">
-        <v>2148000000</v>
-      </c>
-      <c r="N65">
-        <v>13.772707262155929</v>
-      </c>
-      <c r="O65">
-        <v>420300</v>
-      </c>
-      <c r="P65">
-        <v>2.732989642643648</v>
-      </c>
-      <c r="Q65">
-        <v>10.68297852001235</v>
-      </c>
-      <c r="R65">
-        <v>1.9970818865475619</v>
-      </c>
-      <c r="S65">
-        <v>1997.0818865475619</v>
-      </c>
-      <c r="T65">
-        <v>3.2106219241497018</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>12</v>
       </c>
       <c r="B66">
         <v>207</v>
@@ -4602,7 +4601,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G66" t="s">
         <v>44</v>
@@ -4611,43 +4610,43 @@
         <v>45</v>
       </c>
       <c r="I66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J66" t="s">
         <v>27</v>
       </c>
       <c r="K66">
-        <v>13.686225253687899</v>
+        <v>8.6475218730680652</v>
       </c>
       <c r="L66">
-        <v>28592</v>
+        <v>76876</v>
       </c>
       <c r="M66">
-        <v>28592000000</v>
+        <v>76876000000</v>
       </c>
       <c r="N66">
-        <v>9.3915972588826655</v>
+        <v>15.954885396335531</v>
       </c>
       <c r="O66">
-        <v>71598</v>
+        <v>7076</v>
       </c>
       <c r="P66">
-        <v>1.25463070915882</v>
+        <v>0.98108288004884026</v>
       </c>
       <c r="Q66">
-        <v>1.033537259842694</v>
+        <v>0.49419174839677421</v>
       </c>
       <c r="R66">
-        <v>0.22279528448154531</v>
+        <v>0.13096081332514509</v>
       </c>
       <c r="S66">
-        <v>222.79528448154531</v>
+        <v>130.9608133251451</v>
       </c>
       <c r="T66">
-        <v>1.4743104049660329</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.5847528713673991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>25</v>
       </c>
@@ -4673,43 +4672,43 @@
         <v>45</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K67">
-        <v>13.125983777009919</v>
+        <v>7.7822452757022447</v>
       </c>
       <c r="L67">
-        <v>13592</v>
+        <v>76876</v>
       </c>
       <c r="M67">
-        <v>13592000000</v>
+        <v>76876000000</v>
       </c>
       <c r="N67">
-        <v>4.2818009159308517</v>
+        <v>14.358429307557261</v>
       </c>
       <c r="O67">
-        <v>63371</v>
+        <v>7076</v>
       </c>
       <c r="P67">
-        <v>1.219751474322829</v>
+        <v>0.98108288004884026</v>
       </c>
       <c r="Q67">
-        <v>0.94971315314323279</v>
+        <v>0.49419174839677421</v>
       </c>
       <c r="R67">
-        <v>0.2057846916361154</v>
+        <v>0.13096081332514509</v>
       </c>
       <c r="S67">
-        <v>205.78469163611541</v>
+        <v>130.9608133251451</v>
       </c>
       <c r="T67">
-        <v>1.530840842161804</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.426181480357319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>25</v>
       </c>
@@ -4738,10 +4737,10 @@
         <v>29</v>
       </c>
       <c r="J68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K68">
-        <v>13.928331167294591</v>
+        <v>13.125983777009919</v>
       </c>
       <c r="L68">
         <v>13592</v>
@@ -4750,7 +4749,7 @@
         <v>13592000000</v>
       </c>
       <c r="N68">
-        <v>4.543533053420834</v>
+        <v>4.2818009159308517</v>
       </c>
       <c r="O68">
         <v>63371</v>
@@ -4768,12 +4767,12 @@
         <v>205.78469163611541</v>
       </c>
       <c r="T68">
-        <v>1.624416011498903</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.530840842161804</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B69">
         <v>207</v>
@@ -4788,7 +4787,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
         <v>44</v>
@@ -4797,43 +4796,43 @@
         <v>45</v>
       </c>
       <c r="I69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K69">
-        <v>9.629515989167448</v>
+        <v>13.928331167294591</v>
       </c>
       <c r="L69">
-        <v>124042</v>
+        <v>13592</v>
       </c>
       <c r="M69">
-        <v>124042000000</v>
+        <v>13592000000</v>
       </c>
       <c r="N69">
-        <v>28.66714613587941</v>
+        <v>4.543533053420834</v>
       </c>
       <c r="O69">
-        <v>7055</v>
+        <v>63371</v>
       </c>
       <c r="P69">
-        <v>0.98099384833235115</v>
+        <v>1.219751474322829</v>
       </c>
       <c r="Q69">
-        <v>0.49405721925198709</v>
+        <v>0.94971315314323279</v>
       </c>
       <c r="R69">
-        <v>0.1309251631017766</v>
+        <v>0.2057846916361154</v>
       </c>
       <c r="S69">
-        <v>130.9251631017766</v>
+        <v>205.78469163611541</v>
       </c>
       <c r="T69">
-        <v>1.7651945452255291</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.624416011498903</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>25</v>
       </c>
@@ -4859,43 +4858,43 @@
         <v>45</v>
       </c>
       <c r="I70" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J70" t="s">
         <v>27</v>
       </c>
       <c r="K70">
-        <v>8.6475218730680652</v>
+        <v>284.06843402212962</v>
       </c>
       <c r="L70">
-        <v>76876</v>
+        <v>2148</v>
       </c>
       <c r="M70">
-        <v>76876000000</v>
+        <v>2148000000</v>
       </c>
       <c r="N70">
-        <v>15.954885396335531</v>
+        <v>14.644295910708831</v>
       </c>
       <c r="O70">
-        <v>7076</v>
+        <v>420300</v>
       </c>
       <c r="P70">
-        <v>0.98108288004884026</v>
+        <v>2.732989642643648</v>
       </c>
       <c r="Q70">
-        <v>0.49419174839677421</v>
+        <v>10.68297852001235</v>
       </c>
       <c r="R70">
-        <v>0.13096081332514509</v>
+        <v>1.9970818865475619</v>
       </c>
       <c r="S70">
-        <v>130.9608133251451</v>
+        <v>1997.0818865475619</v>
       </c>
       <c r="T70">
-        <v>1.5847528713673991</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>3.4138021392387929</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>25</v>
       </c>
@@ -4921,102 +4920,102 @@
         <v>45</v>
       </c>
       <c r="I71" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J71" t="s">
         <v>28</v>
       </c>
       <c r="K71">
-        <v>7.7822452757022447</v>
+        <v>267.16145371966041</v>
       </c>
       <c r="L71">
-        <v>76876</v>
+        <v>2148</v>
       </c>
       <c r="M71">
-        <v>76876000000</v>
+        <v>2148000000</v>
       </c>
       <c r="N71">
-        <v>14.358429307557261</v>
+        <v>13.772707262155929</v>
       </c>
       <c r="O71">
-        <v>7076</v>
+        <v>420300</v>
       </c>
       <c r="P71">
-        <v>0.98108288004884026</v>
+        <v>2.732989642643648</v>
       </c>
       <c r="Q71">
-        <v>0.49419174839677421</v>
+        <v>10.68297852001235</v>
       </c>
       <c r="R71">
-        <v>0.13096081332514509</v>
+        <v>1.9970818865475619</v>
       </c>
       <c r="S71">
-        <v>130.9608133251451</v>
+        <v>1997.0818865475619</v>
       </c>
       <c r="T71">
-        <v>1.426181480357319</v>
+        <v>3.2106219241497018</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B72">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H72" t="s">
         <v>45</v>
       </c>
       <c r="I72" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K72">
-        <v>4.4424628217088298</v>
+        <v>2.1760128181132061</v>
       </c>
       <c r="L72">
-        <v>926</v>
+        <v>83984</v>
       </c>
       <c r="M72">
-        <v>926000000</v>
+        <v>83984000000</v>
       </c>
       <c r="N72">
-        <v>9.8729293749657027E-2</v>
+        <v>4.3860062523940666</v>
       </c>
       <c r="O72">
-        <v>772500</v>
+        <v>9527</v>
       </c>
       <c r="P72">
-        <v>4.2261787163322326</v>
+        <v>0.99147415324478205</v>
       </c>
       <c r="Q72">
-        <v>39.502262736461518</v>
+        <v>0.5100615529935143</v>
       </c>
       <c r="R72">
-        <v>6.8183891449186618</v>
+        <v>0.13516631154328129</v>
       </c>
       <c r="S72">
-        <v>6818.3891449186622</v>
+        <v>135.1663115432813</v>
       </c>
       <c r="T72">
-        <v>1.563699364394136E-2</v>
+        <v>0.38637073867325528</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -5045,40 +5044,40 @@
         <v>45</v>
       </c>
       <c r="I73" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J73" t="s">
         <v>27</v>
       </c>
       <c r="K73">
-        <v>20.851621064320391</v>
+        <v>0.57460258459002522</v>
       </c>
       <c r="L73">
-        <v>2219</v>
+        <v>83984</v>
       </c>
       <c r="M73">
-        <v>2219000000</v>
+        <v>83984000000</v>
       </c>
       <c r="N73">
-        <v>1.1104739314014469</v>
+        <v>1.158178163141008</v>
       </c>
       <c r="O73">
-        <v>791800</v>
+        <v>9527</v>
       </c>
       <c r="P73">
-        <v>4.3080031033912602</v>
+        <v>0.99147415324478205</v>
       </c>
       <c r="Q73">
-        <v>41.841420490148792</v>
+        <v>0.5100615529935143</v>
       </c>
       <c r="R73">
-        <v>7.1968455031828409</v>
+        <v>0.13516631154328129</v>
       </c>
       <c r="S73">
-        <v>7196.8455031828407</v>
+        <v>135.1663115432813</v>
       </c>
       <c r="T73">
-        <v>6.953586891956591E-2</v>
+        <v>0.1020258810994098</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -5107,43 +5106,43 @@
         <v>45</v>
       </c>
       <c r="I74" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J74" t="s">
         <v>28</v>
       </c>
       <c r="K74">
-        <v>23.1950982720601</v>
+        <v>0.3769229075385549</v>
       </c>
       <c r="L74">
-        <v>2219</v>
+        <v>83984</v>
       </c>
       <c r="M74">
-        <v>2219000000</v>
+        <v>83984000000</v>
       </c>
       <c r="N74">
-        <v>1.2352781535768329</v>
+        <v>0.75973184320123188</v>
       </c>
       <c r="O74">
-        <v>791800</v>
+        <v>9527</v>
       </c>
       <c r="P74">
-        <v>4.3080031033912602</v>
+        <v>0.99147415324478205</v>
       </c>
       <c r="Q74">
-        <v>41.841420490148792</v>
+        <v>0.5100615529935143</v>
       </c>
       <c r="R74">
-        <v>7.1968455031828409</v>
+        <v>0.13516631154328129</v>
       </c>
       <c r="S74">
-        <v>7196.8455031828407</v>
+        <v>135.1663115432813</v>
       </c>
       <c r="T74">
-        <v>7.7350883561867048E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.6926068172161887E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>12</v>
       </c>
@@ -5172,10 +5171,10 @@
         <v>29</v>
       </c>
       <c r="J75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K75">
-        <v>0.53516907388286672</v>
+        <v>6.4035924400300148</v>
       </c>
       <c r="L75">
         <v>19411</v>
@@ -5184,7 +5183,7 @@
         <v>19411000000</v>
       </c>
       <c r="N75">
-        <v>0.2493160054353678</v>
+        <v>2.9832031884821428</v>
       </c>
       <c r="O75">
         <v>68051</v>
@@ -5202,10 +5201,10 @@
         <v>215.3544073948263</v>
       </c>
       <c r="T75">
-        <v>5.9641490176891403E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.71364324705440196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>12</v>
       </c>
@@ -5234,10 +5233,10 @@
         <v>29</v>
       </c>
       <c r="J76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K76">
-        <v>0.78201260843936604</v>
+        <v>0.53516907388286672</v>
       </c>
       <c r="L76">
         <v>19411</v>
@@ -5246,7 +5245,7 @@
         <v>19411000000</v>
       </c>
       <c r="N76">
-        <v>0.36431152181799681</v>
+        <v>0.2493160054353678</v>
       </c>
       <c r="O76">
         <v>68051</v>
@@ -5264,30 +5263,30 @@
         <v>215.3544073948263</v>
       </c>
       <c r="T76">
-        <v>8.7150770813505432E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.9641490176891403E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s">
         <v>45</v>
@@ -5296,223 +5295,223 @@
         <v>29</v>
       </c>
       <c r="J77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K77">
-        <v>0.94751829414069433</v>
+        <v>0.78201260843936604</v>
       </c>
       <c r="L77">
-        <v>18092</v>
+        <v>19411</v>
       </c>
       <c r="M77">
-        <v>18092000000</v>
+        <v>19411000000</v>
       </c>
       <c r="N77">
-        <v>0.41142002346224249</v>
+        <v>0.36431152181799681</v>
       </c>
       <c r="O77">
-        <v>56684</v>
+        <v>68051</v>
       </c>
       <c r="P77">
-        <v>1.1914012320293721</v>
+        <v>1.239592828283256</v>
       </c>
       <c r="Q77">
-        <v>0.88501887336493135</v>
+        <v>0.99681729050194134</v>
       </c>
       <c r="R77">
-        <v>0.1925937453712839</v>
+        <v>0.21535440739482631</v>
       </c>
       <c r="S77">
-        <v>192.59374537128389</v>
+        <v>215.3544073948263</v>
       </c>
       <c r="T77">
-        <v>0.11807464990899599</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.7150770813505432E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J78" t="s">
         <v>26</v>
       </c>
       <c r="K78">
-        <v>0.66294992458959323</v>
+        <v>43.753784685413017</v>
       </c>
       <c r="L78">
-        <v>98134</v>
+        <v>2219</v>
       </c>
       <c r="M78">
-        <v>98134000000</v>
+        <v>2219000000</v>
       </c>
       <c r="N78">
-        <v>1.5613902695922031</v>
+        <v>2.330151557206356</v>
       </c>
       <c r="O78">
-        <v>11105.5</v>
+        <v>791800</v>
       </c>
       <c r="P78">
-        <v>0.99816637060087943</v>
+        <v>4.3080031033912602</v>
       </c>
       <c r="Q78">
-        <v>0.52166994226493868</v>
+        <v>41.841420490148792</v>
       </c>
       <c r="R78">
-        <v>0.13824253470020881</v>
+        <v>7.1968455031828409</v>
       </c>
       <c r="S78">
-        <v>138.24253470020881</v>
+        <v>7196.8455031828407</v>
       </c>
       <c r="T78">
-        <v>0.11509336272410101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.1459098756511453</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B79">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H79" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I79" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K79">
-        <v>0.70355796840348572</v>
+        <v>20.851621064320391</v>
       </c>
       <c r="L79">
-        <v>98134</v>
+        <v>2219</v>
       </c>
       <c r="M79">
-        <v>98134000000</v>
+        <v>2219000000</v>
       </c>
       <c r="N79">
-        <v>1.6570309841113839</v>
+        <v>1.1104739314014469</v>
       </c>
       <c r="O79">
-        <v>11105.5</v>
+        <v>791800</v>
       </c>
       <c r="P79">
-        <v>0.99816637060087943</v>
+        <v>4.3080031033912602</v>
       </c>
       <c r="Q79">
-        <v>0.52166994226493868</v>
+        <v>41.841420490148792</v>
       </c>
       <c r="R79">
-        <v>0.13824253470020881</v>
+        <v>7.1968455031828409</v>
       </c>
       <c r="S79">
-        <v>138.24253470020881</v>
+        <v>7196.8455031828407</v>
       </c>
       <c r="T79">
-        <v>0.12214324106759999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.953586891956591E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>12</v>
       </c>
       <c r="B80">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
         <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I80" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K80">
-        <v>0.73764269363834278</v>
+        <v>23.1950982720601</v>
       </c>
       <c r="L80">
-        <v>44330</v>
+        <v>2219</v>
       </c>
       <c r="M80">
-        <v>44330000000</v>
+        <v>2219000000</v>
       </c>
       <c r="N80">
-        <v>0.78479281461570571</v>
+        <v>1.2352781535768329</v>
       </c>
       <c r="O80">
-        <v>10175</v>
+        <v>791800</v>
       </c>
       <c r="P80">
-        <v>0.99422141763930283</v>
+        <v>4.3080031033912602</v>
       </c>
       <c r="Q80">
-        <v>0.51431328350755789</v>
+        <v>41.841420490148792</v>
       </c>
       <c r="R80">
-        <v>0.13629302012950281</v>
+        <v>7.1968455031828409</v>
       </c>
       <c r="S80">
-        <v>136.29302012950279</v>
+        <v>7196.8455031828407</v>
       </c>
       <c r="T80">
-        <v>0.12989237915851301</v>
+        <v>7.7350883561867048E-2</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -5520,16 +5519,16 @@
         <v>12</v>
       </c>
       <c r="B81">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s">
         <v>31</v>
@@ -5541,40 +5540,40 @@
         <v>45</v>
       </c>
       <c r="I81" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J81" t="s">
         <v>26</v>
       </c>
       <c r="K81">
-        <v>28.785064863066861</v>
+        <v>1.40325370278112</v>
       </c>
       <c r="L81">
-        <v>1355</v>
+        <v>12739</v>
       </c>
       <c r="M81">
-        <v>1355000000</v>
+        <v>12739000000</v>
       </c>
       <c r="N81">
-        <v>0.93609030934693427</v>
+        <v>0.4290251740734885</v>
       </c>
       <c r="O81">
-        <v>771900</v>
+        <v>46766</v>
       </c>
       <c r="P81">
-        <v>4.2236349530039723</v>
+        <v>1.1493528242132349</v>
       </c>
       <c r="Q81">
-        <v>39.430975686847937</v>
+        <v>0.79458159213532242</v>
       </c>
       <c r="R81">
-        <v>6.8068344106406116</v>
+        <v>0.21056412191586049</v>
       </c>
       <c r="S81">
-        <v>6806.8344106406112</v>
+        <v>210.56412191586051</v>
       </c>
       <c r="T81">
-        <v>0.1014923406442302</v>
+        <v>0.1599421998406943</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -5582,81 +5581,81 @@
         <v>12</v>
       </c>
       <c r="B82">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s">
         <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s">
         <v>45</v>
       </c>
       <c r="I82" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K82">
-        <v>43.753784685413017</v>
+        <v>1.349653484951437</v>
       </c>
       <c r="L82">
-        <v>2219</v>
+        <v>12739</v>
       </c>
       <c r="M82">
-        <v>2219000000</v>
+        <v>12739000000</v>
       </c>
       <c r="N82">
-        <v>2.330151557206356</v>
+        <v>0.41263765787511247</v>
       </c>
       <c r="O82">
-        <v>791800</v>
+        <v>46766</v>
       </c>
       <c r="P82">
-        <v>4.3080031033912602</v>
+        <v>1.1493528242132349</v>
       </c>
       <c r="Q82">
-        <v>41.841420490148792</v>
+        <v>0.79458159213532242</v>
       </c>
       <c r="R82">
-        <v>7.1968455031828409</v>
+        <v>0.21056412191586049</v>
       </c>
       <c r="S82">
-        <v>7196.8455031828407</v>
+        <v>210.56412191586051</v>
       </c>
       <c r="T82">
-        <v>0.1459098756511453</v>
+        <v>0.153832872115687</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C83" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
         <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>50</v>
@@ -5665,60 +5664,60 @@
         <v>45</v>
       </c>
       <c r="I83" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K83">
-        <v>50.112326829730648</v>
+        <v>1.2231569708733829</v>
       </c>
       <c r="L83">
-        <v>926</v>
+        <v>12739</v>
       </c>
       <c r="M83">
-        <v>926000000</v>
+        <v>12739000000</v>
       </c>
       <c r="N83">
-        <v>1.113696351463934</v>
+        <v>0.37396311964694462</v>
       </c>
       <c r="O83">
-        <v>772500</v>
+        <v>46766</v>
       </c>
       <c r="P83">
-        <v>4.2261787163322326</v>
+        <v>1.1493528242132349</v>
       </c>
       <c r="Q83">
-        <v>39.502262736461518</v>
+        <v>0.79458159213532242</v>
       </c>
       <c r="R83">
-        <v>6.8183891449186618</v>
+        <v>0.21056412191586049</v>
       </c>
       <c r="S83">
-        <v>6818.3891449186622</v>
+        <v>210.56412191586051</v>
       </c>
       <c r="T83">
-        <v>0.17639002678658089</v>
+        <v>0.13941485868466941</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>50</v>
@@ -5727,45 +5726,45 @@
         <v>45</v>
       </c>
       <c r="I84" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K84">
-        <v>52.030663048195827</v>
+        <v>3.3237495076186891</v>
       </c>
       <c r="L84">
-        <v>926</v>
+        <v>7236</v>
       </c>
       <c r="M84">
-        <v>926000000</v>
+        <v>7236000000</v>
       </c>
       <c r="N84">
-        <v>1.1563294555831041</v>
+        <v>0.57721563449109203</v>
       </c>
       <c r="O84">
-        <v>772500</v>
+        <v>48220</v>
       </c>
       <c r="P84">
-        <v>4.2261787163322326</v>
+        <v>1.1555172106787179</v>
       </c>
       <c r="Q84">
-        <v>39.502262736461518</v>
+        <v>0.80743515240783237</v>
       </c>
       <c r="R84">
-        <v>6.8183891449186618</v>
+        <v>0.17669645529043221</v>
       </c>
       <c r="S84">
-        <v>6818.3891449186622</v>
+        <v>176.6964552904322</v>
       </c>
       <c r="T84">
-        <v>0.18314236495101019</v>
+        <v>0.45145211346618302</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B85">
         <v>283</v>
@@ -5780,7 +5779,7 @@
         <v>52</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>50</v>
@@ -5789,57 +5788,57 @@
         <v>45</v>
       </c>
       <c r="I85" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K85">
-        <v>56.332427117075433</v>
+        <v>2.6607148130655012</v>
       </c>
       <c r="L85">
-        <v>1665</v>
+        <v>7236</v>
       </c>
       <c r="M85">
-        <v>1665000000</v>
+        <v>7236000000</v>
       </c>
       <c r="N85">
-        <v>2.2510437875983338</v>
+        <v>0.46207037729620709</v>
       </c>
       <c r="O85">
-        <v>562600</v>
+        <v>48220</v>
       </c>
       <c r="P85">
-        <v>3.336285511995964</v>
+        <v>1.1555172106787179</v>
       </c>
       <c r="Q85">
-        <v>19.434260789896069</v>
+        <v>0.80743515240783237</v>
       </c>
       <c r="R85">
-        <v>3.5028305423751469</v>
+        <v>0.17669645529043221</v>
       </c>
       <c r="S85">
-        <v>3502.8305423751472</v>
+        <v>176.6964552904322</v>
       </c>
       <c r="T85">
-        <v>0.3859673582419666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.36139466073957949</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>12</v>
       </c>
       <c r="B86">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F86" t="s">
         <v>31</v>
@@ -5854,57 +5853,57 @@
         <v>29</v>
       </c>
       <c r="J86" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K86">
-        <v>1.05391541832739</v>
+        <v>3.049852394509005</v>
       </c>
       <c r="L86">
-        <v>17927</v>
+        <v>7236</v>
       </c>
       <c r="M86">
-        <v>17927000000</v>
+        <v>7236000000</v>
       </c>
       <c r="N86">
-        <v>0.45344500090452289</v>
+        <v>0.5296495662400118</v>
       </c>
       <c r="O86">
-        <v>54927</v>
+        <v>48220</v>
       </c>
       <c r="P86">
-        <v>1.183952245083117</v>
+        <v>1.1555172106787179</v>
       </c>
       <c r="Q86">
-        <v>0.86852226020452994</v>
+        <v>0.80743515240783237</v>
       </c>
       <c r="R86">
-        <v>0.18922088389673949</v>
+        <v>0.17669645529043221</v>
       </c>
       <c r="S86">
-        <v>189.22088389673951</v>
+        <v>176.6964552904322</v>
       </c>
       <c r="T86">
-        <v>0.13367430443703371</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.41424972191946158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
         <v>50</v>
@@ -5913,60 +5912,60 @@
         <v>45</v>
       </c>
       <c r="I87" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K87">
-        <v>2.044542548627359</v>
+        <v>83.783572493935281</v>
       </c>
       <c r="L87">
-        <v>18092</v>
+        <v>2991</v>
       </c>
       <c r="M87">
-        <v>18092000000</v>
+        <v>2991000000</v>
       </c>
       <c r="N87">
-        <v>0.88775673095438845</v>
+        <v>6.0143199679046502</v>
       </c>
       <c r="O87">
-        <v>56684</v>
+        <v>541000</v>
       </c>
       <c r="P87">
-        <v>1.1914012320293721</v>
+        <v>3.244710032178606</v>
       </c>
       <c r="Q87">
-        <v>0.88501887336493135</v>
+        <v>17.877470595367591</v>
       </c>
       <c r="R87">
-        <v>0.1925937453712839</v>
+        <v>3.2386883057007472</v>
       </c>
       <c r="S87">
-        <v>192.59374537128389</v>
+        <v>3238.6883057007472</v>
       </c>
       <c r="T87">
-        <v>0.25477993105363278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.62087041112138563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B88">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>50</v>
@@ -5975,45 +5974,45 @@
         <v>45</v>
       </c>
       <c r="I88" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J88" t="s">
         <v>27</v>
       </c>
       <c r="K88">
-        <v>2.2244674706021632</v>
+        <v>71.965796466846612</v>
       </c>
       <c r="L88">
-        <v>18092</v>
+        <v>2991</v>
       </c>
       <c r="M88">
-        <v>18092000000</v>
+        <v>2991000000</v>
       </c>
       <c r="N88">
-        <v>0.96588157147522413</v>
+        <v>5.1659927335761173</v>
       </c>
       <c r="O88">
-        <v>56684</v>
+        <v>541000</v>
       </c>
       <c r="P88">
-        <v>1.1914012320293721</v>
+        <v>3.244710032178606</v>
       </c>
       <c r="Q88">
-        <v>0.88501887336493135</v>
+        <v>17.877470595367591</v>
       </c>
       <c r="R88">
-        <v>0.1925937453712839</v>
+        <v>3.2386883057007472</v>
       </c>
       <c r="S88">
-        <v>192.59374537128389</v>
+        <v>3238.6883057007472</v>
       </c>
       <c r="T88">
-        <v>0.27720121020301858</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.53329587542096402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B89">
         <v>283</v>
@@ -6028,7 +6027,7 @@
         <v>52</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
         <v>50</v>
@@ -6037,43 +6036,43 @@
         <v>45</v>
       </c>
       <c r="I89" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K89">
-        <v>2.3505911170042362</v>
+        <v>69.763899518403207</v>
       </c>
       <c r="L89">
-        <v>9675</v>
+        <v>2991</v>
       </c>
       <c r="M89">
-        <v>9675000000</v>
+        <v>2991000000</v>
       </c>
       <c r="N89">
-        <v>0.54580725736838365</v>
+        <v>5.007931763029057</v>
       </c>
       <c r="O89">
-        <v>66583</v>
+        <v>541000</v>
       </c>
       <c r="P89">
-        <v>1.233369087340114</v>
+        <v>3.244710032178606</v>
       </c>
       <c r="Q89">
-        <v>0.98187810425737609</v>
+        <v>17.877470595367591</v>
       </c>
       <c r="R89">
-        <v>0.21232239992960239</v>
+        <v>3.2386883057007472</v>
       </c>
       <c r="S89">
-        <v>212.3223999296024</v>
+        <v>3238.6883057007472</v>
       </c>
       <c r="T89">
-        <v>0.26570058941876301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51697892183527228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>40</v>
       </c>
@@ -6099,66 +6098,66 @@
         <v>45</v>
       </c>
       <c r="I90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K90">
-        <v>2.500678549816679</v>
+        <v>1.4354665753034559</v>
       </c>
       <c r="L90">
-        <v>9675</v>
+        <v>10911</v>
       </c>
       <c r="M90">
-        <v>9675000000</v>
+        <v>10911000000</v>
       </c>
       <c r="N90">
-        <v>0.5806575592674329</v>
+        <v>0.37589701927526409</v>
       </c>
       <c r="O90">
-        <v>66583</v>
+        <v>15678</v>
       </c>
       <c r="P90">
-        <v>1.233369087340114</v>
+        <v>1.0175519669649939</v>
       </c>
       <c r="Q90">
-        <v>0.98187810425737609</v>
+        <v>0.55137642359320849</v>
       </c>
       <c r="R90">
-        <v>0.21232239992960239</v>
+        <v>0.14611475225220019</v>
       </c>
       <c r="S90">
-        <v>212.3223999296024</v>
+        <v>146.11475225220019</v>
       </c>
       <c r="T90">
-        <v>0.28266581960028381</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.23578178983473699</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B91">
-        <v>150</v>
+        <v>283</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I91" t="s">
         <v>30</v>
@@ -6167,60 +6166,60 @@
         <v>27</v>
       </c>
       <c r="K91">
-        <v>0.86212103480949343</v>
+        <v>1.416194648132987</v>
       </c>
       <c r="L91">
-        <v>98698</v>
+        <v>10911</v>
       </c>
       <c r="M91">
-        <v>98698000000</v>
+        <v>10911000000</v>
       </c>
       <c r="N91">
-        <v>2.0421509254470571</v>
+        <v>0.37085039533869651</v>
       </c>
       <c r="O91">
-        <v>22626</v>
+        <v>15678</v>
       </c>
       <c r="P91">
-        <v>1.0470087463062441</v>
+        <v>1.0175519669649939</v>
       </c>
       <c r="Q91">
-        <v>0.60524131280717985</v>
+        <v>0.55137642359320849</v>
       </c>
       <c r="R91">
-        <v>0.16038894789390271</v>
+        <v>0.14611475225220019</v>
       </c>
       <c r="S91">
-        <v>160.38894789390261</v>
+        <v>146.11475225220019</v>
       </c>
       <c r="T91">
-        <v>0.12900455490932511</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.23261628980847751</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B92">
-        <v>137</v>
+        <v>283</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I92" t="s">
         <v>30</v>
@@ -6229,175 +6228,175 @@
         <v>28</v>
       </c>
       <c r="K92">
-        <v>0.89422356392973246</v>
+        <v>1.401594703306873</v>
       </c>
       <c r="L92">
-        <v>44330</v>
+        <v>10911</v>
       </c>
       <c r="M92">
-        <v>44330000000</v>
+        <v>10911000000</v>
       </c>
       <c r="N92">
-        <v>0.95138233413612106</v>
+        <v>0.36702719538675099</v>
       </c>
       <c r="O92">
-        <v>10175</v>
+        <v>15678</v>
       </c>
       <c r="P92">
-        <v>0.99422141763930283</v>
+        <v>1.0175519669649939</v>
       </c>
       <c r="Q92">
-        <v>0.51431328350755789</v>
+        <v>0.55137642359320849</v>
       </c>
       <c r="R92">
-        <v>0.13629302012950281</v>
+        <v>0.14611475225220019</v>
       </c>
       <c r="S92">
-        <v>136.29302012950279</v>
+        <v>146.11475225220019</v>
       </c>
       <c r="T92">
-        <v>0.15746489082068499</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.23021818372797759</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B93">
-        <v>188</v>
+        <v>283</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G93" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J93" t="s">
         <v>26</v>
       </c>
       <c r="K93">
-        <v>0.91986440292555705</v>
+        <v>2.3505911170042362</v>
       </c>
       <c r="L93">
-        <v>47569</v>
+        <v>9675</v>
       </c>
       <c r="M93">
-        <v>47569000000</v>
+        <v>9675000000</v>
       </c>
       <c r="N93">
-        <v>1.0501687147863801</v>
+        <v>0.54580725736838365</v>
       </c>
       <c r="O93">
-        <v>35077</v>
+        <v>66583</v>
       </c>
       <c r="P93">
-        <v>1.099796074973185</v>
+        <v>1.233369087340114</v>
       </c>
       <c r="Q93">
-        <v>0.6961693421068017</v>
+        <v>0.98187810425737609</v>
       </c>
       <c r="R93">
-        <v>0.18448487565830249</v>
+        <v>0.21232239992960239</v>
       </c>
       <c r="S93">
-        <v>184.48487565830251</v>
+        <v>212.3223999296024</v>
       </c>
       <c r="T93">
-        <v>0.1196669677741132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.26570058941876301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B94">
-        <v>150</v>
+        <v>283</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K94">
-        <v>0.965550785393678</v>
+        <v>2.5538223489837319</v>
       </c>
       <c r="L94">
-        <v>98698</v>
+        <v>9675</v>
       </c>
       <c r="M94">
-        <v>98698000000</v>
+        <v>9675000000</v>
       </c>
       <c r="N94">
-        <v>2.2871503540028462</v>
+        <v>0.59299754943402261</v>
       </c>
       <c r="O94">
-        <v>22626</v>
+        <v>66583</v>
       </c>
       <c r="P94">
-        <v>1.0470087463062441</v>
+        <v>1.233369087340114</v>
       </c>
       <c r="Q94">
-        <v>0.60524131280717985</v>
+        <v>0.98187810425737609</v>
       </c>
       <c r="R94">
-        <v>0.16038894789390271</v>
+        <v>0.21232239992960239</v>
       </c>
       <c r="S94">
-        <v>160.38894789390261</v>
+        <v>212.3223999296024</v>
       </c>
       <c r="T94">
-        <v>0.14448139447100411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.28867296336105591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B95">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C95" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
@@ -6409,40 +6408,40 @@
         <v>45</v>
       </c>
       <c r="I95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J95" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K95">
-        <v>1.152684482147935</v>
+        <v>2.500678549816679</v>
       </c>
       <c r="L95">
-        <v>20586</v>
+        <v>9675</v>
       </c>
       <c r="M95">
-        <v>20586000000</v>
+        <v>9675000000</v>
       </c>
       <c r="N95">
-        <v>0.56949990598793732</v>
+        <v>0.5806575592674329</v>
       </c>
       <c r="O95">
-        <v>13541</v>
+        <v>66583</v>
       </c>
       <c r="P95">
-        <v>1.008491929910841</v>
+        <v>1.233369087340114</v>
       </c>
       <c r="Q95">
-        <v>0.53677920098246423</v>
+        <v>0.98187810425737609</v>
       </c>
       <c r="R95">
-        <v>0.14224648826035299</v>
+        <v>0.21232239992960239</v>
       </c>
       <c r="S95">
-        <v>142.246488260353</v>
+        <v>212.3223999296024</v>
       </c>
       <c r="T95">
-        <v>0.19448232367548071</v>
+        <v>0.28266581960028381</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -6474,10 +6473,10 @@
         <v>25</v>
       </c>
       <c r="J96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K96">
-        <v>56.60573808422027</v>
+        <v>56.332427117075433</v>
       </c>
       <c r="L96">
         <v>1665</v>
@@ -6486,7 +6485,7 @@
         <v>1665000000</v>
       </c>
       <c r="N96">
-        <v>2.2619652938454422</v>
+        <v>2.2510437875983338</v>
       </c>
       <c r="O96">
         <v>562600</v>
@@ -6504,7 +6503,7 @@
         <v>3502.8305423751472</v>
       </c>
       <c r="T96">
-        <v>0.38783997615257448</v>
+        <v>0.3859673582419666</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
@@ -6536,10 +6535,10 @@
         <v>25</v>
       </c>
       <c r="J97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K97">
-        <v>61.646807033780647</v>
+        <v>56.60573808422027</v>
       </c>
       <c r="L97">
         <v>1665</v>
@@ -6548,7 +6547,7 @@
         <v>1665000000</v>
       </c>
       <c r="N97">
-        <v>2.4634064090698748</v>
+        <v>2.2619652938454422</v>
       </c>
       <c r="O97">
         <v>562600</v>
@@ -6566,12 +6565,12 @@
         <v>3502.8305423751472</v>
       </c>
       <c r="T97">
-        <v>0.42237937317045388</v>
+        <v>0.38783997615257448</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B98">
         <v>283</v>
@@ -6586,7 +6585,7 @@
         <v>52</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
         <v>50</v>
@@ -6601,34 +6600,34 @@
         <v>28</v>
       </c>
       <c r="K98">
-        <v>69.763899518403207</v>
+        <v>61.646807033780647</v>
       </c>
       <c r="L98">
-        <v>2991</v>
+        <v>1665</v>
       </c>
       <c r="M98">
-        <v>2991000000</v>
+        <v>1665000000</v>
       </c>
       <c r="N98">
-        <v>5.007931763029057</v>
+        <v>2.4634064090698748</v>
       </c>
       <c r="O98">
-        <v>541000</v>
+        <v>562600</v>
       </c>
       <c r="P98">
-        <v>3.244710032178606</v>
+        <v>3.336285511995964</v>
       </c>
       <c r="Q98">
-        <v>17.877470595367591</v>
+        <v>19.434260789896069</v>
       </c>
       <c r="R98">
-        <v>3.2386883057007472</v>
+        <v>3.5028305423751469</v>
       </c>
       <c r="S98">
-        <v>3238.6883057007472</v>
+        <v>3502.8305423751472</v>
       </c>
       <c r="T98">
-        <v>0.51697892183527228</v>
+        <v>0.42237937317045388</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -6636,16 +6635,16 @@
         <v>12</v>
       </c>
       <c r="B99">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D99" t="s">
         <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
         <v>31</v>
@@ -6657,40 +6656,40 @@
         <v>45</v>
       </c>
       <c r="I99" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K99">
-        <v>71.965796466846612</v>
+        <v>1.514370051214418</v>
       </c>
       <c r="L99">
-        <v>2991</v>
+        <v>21822</v>
       </c>
       <c r="M99">
-        <v>2991000000</v>
+        <v>21822000000</v>
       </c>
       <c r="N99">
-        <v>5.1659927335761173</v>
+        <v>0.79311799818242468</v>
       </c>
       <c r="O99">
-        <v>541000</v>
+        <v>12847</v>
       </c>
       <c r="P99">
-        <v>3.244710032178606</v>
+        <v>1.005549643661154</v>
       </c>
       <c r="Q99">
-        <v>17.877470595367591</v>
+        <v>0.53209471704525679</v>
       </c>
       <c r="R99">
-        <v>3.2386883057007472</v>
+        <v>0.1410051000169931</v>
       </c>
       <c r="S99">
-        <v>3238.6883057007472</v>
+        <v>141.00510001699311</v>
       </c>
       <c r="T99">
-        <v>0.53329587542096402</v>
+        <v>0.25775579198742432</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -6719,40 +6718,40 @@
         <v>45</v>
       </c>
       <c r="I100" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J100" t="s">
         <v>28</v>
       </c>
       <c r="K100">
-        <v>80.097571792881709</v>
+        <v>1.1983220982424421</v>
       </c>
       <c r="L100">
-        <v>1355</v>
+        <v>21822</v>
       </c>
       <c r="M100">
-        <v>1355000000</v>
+        <v>21822000000</v>
       </c>
       <c r="N100">
-        <v>2.6047730347045128</v>
+        <v>0.62759483586831766</v>
       </c>
       <c r="O100">
-        <v>771900</v>
+        <v>12847</v>
       </c>
       <c r="P100">
-        <v>4.2236349530039723</v>
+        <v>1.005549643661154</v>
       </c>
       <c r="Q100">
-        <v>39.430975686847937</v>
+        <v>0.53209471704525679</v>
       </c>
       <c r="R100">
-        <v>6.8068344106406116</v>
+        <v>0.1410051000169931</v>
       </c>
       <c r="S100">
-        <v>6806.8344106406112</v>
+        <v>141.00510001699311</v>
       </c>
       <c r="T100">
-        <v>0.28241346961872749</v>
+        <v>0.20396234146390921</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
@@ -6760,16 +6759,16 @@
         <v>12</v>
       </c>
       <c r="B101">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C101" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
         <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F101" t="s">
         <v>31</v>
@@ -6781,43 +6780,43 @@
         <v>45</v>
       </c>
       <c r="I101" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J101" t="s">
         <v>26</v>
       </c>
       <c r="K101">
-        <v>83.783572493935281</v>
+        <v>1.05391541832739</v>
       </c>
       <c r="L101">
-        <v>2991</v>
+        <v>17927</v>
       </c>
       <c r="M101">
-        <v>2991000000</v>
+        <v>17927000000</v>
       </c>
       <c r="N101">
-        <v>6.0143199679046502</v>
+        <v>0.45344500090452289</v>
       </c>
       <c r="O101">
-        <v>541000</v>
+        <v>54927</v>
       </c>
       <c r="P101">
-        <v>3.244710032178606</v>
+        <v>1.183952245083117</v>
       </c>
       <c r="Q101">
-        <v>17.877470595367591</v>
+        <v>0.86852226020452994</v>
       </c>
       <c r="R101">
-        <v>3.2386883057007472</v>
+        <v>0.18922088389673949</v>
       </c>
       <c r="S101">
-        <v>3238.6883057007472</v>
+        <v>189.22088389673951</v>
       </c>
       <c r="T101">
-        <v>0.62087041112138563</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.13367430443703371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>12</v>
       </c>
@@ -6879,24 +6878,24 @@
         <v>0.32044879831690359</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B103">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C103" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D103" t="s">
         <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>50</v>
@@ -6905,57 +6904,57 @@
         <v>45</v>
       </c>
       <c r="I103" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K103">
-        <v>2.5538223489837319</v>
+        <v>28.785064863066861</v>
       </c>
       <c r="L103">
-        <v>9675</v>
+        <v>1355</v>
       </c>
       <c r="M103">
-        <v>9675000000</v>
+        <v>1355000000</v>
       </c>
       <c r="N103">
-        <v>0.59299754943402261</v>
+        <v>0.93609030934693427</v>
       </c>
       <c r="O103">
-        <v>66583</v>
+        <v>771900</v>
       </c>
       <c r="P103">
-        <v>1.233369087340114</v>
+        <v>4.2236349530039723</v>
       </c>
       <c r="Q103">
-        <v>0.98187810425737609</v>
+        <v>39.430975686847937</v>
       </c>
       <c r="R103">
-        <v>0.21232239992960239</v>
+        <v>6.8068344106406116</v>
       </c>
       <c r="S103">
-        <v>212.3223999296024</v>
+        <v>6806.8344106406112</v>
       </c>
       <c r="T103">
-        <v>0.28867296336105591</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.1014923406442302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>12</v>
       </c>
       <c r="B104">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D104" t="s">
         <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F104" t="s">
         <v>31</v>
@@ -6967,60 +6966,60 @@
         <v>45</v>
       </c>
       <c r="I104" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K104">
-        <v>2.6607148130655012</v>
+        <v>80.097571792881709</v>
       </c>
       <c r="L104">
-        <v>7236</v>
+        <v>1355</v>
       </c>
       <c r="M104">
-        <v>7236000000</v>
+        <v>1355000000</v>
       </c>
       <c r="N104">
-        <v>0.46207037729620709</v>
+        <v>2.6047730347045128</v>
       </c>
       <c r="O104">
-        <v>48220</v>
+        <v>771900</v>
       </c>
       <c r="P104">
-        <v>1.1555172106787179</v>
+        <v>4.2236349530039723</v>
       </c>
       <c r="Q104">
-        <v>0.80743515240783237</v>
+        <v>39.430975686847937</v>
       </c>
       <c r="R104">
-        <v>0.17669645529043221</v>
+        <v>6.8068344106406116</v>
       </c>
       <c r="S104">
-        <v>176.6964552904322</v>
+        <v>6806.8344106406112</v>
       </c>
       <c r="T104">
-        <v>0.36139466073957949</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.28241346961872749</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B105">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C105" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D105" t="s">
         <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
         <v>50</v>
@@ -7029,60 +7028,60 @@
         <v>45</v>
       </c>
       <c r="I105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K105">
-        <v>3.049852394509005</v>
+        <v>1.152684482147935</v>
       </c>
       <c r="L105">
-        <v>7236</v>
+        <v>20586</v>
       </c>
       <c r="M105">
-        <v>7236000000</v>
+        <v>20586000000</v>
       </c>
       <c r="N105">
-        <v>0.5296495662400118</v>
+        <v>0.56949990598793732</v>
       </c>
       <c r="O105">
-        <v>48220</v>
+        <v>13541</v>
       </c>
       <c r="P105">
-        <v>1.1555172106787179</v>
+        <v>1.008491929910841</v>
       </c>
       <c r="Q105">
-        <v>0.80743515240783237</v>
+        <v>0.53677920098246423</v>
       </c>
       <c r="R105">
-        <v>0.17669645529043221</v>
+        <v>0.14224648826035299</v>
       </c>
       <c r="S105">
-        <v>176.6964552904322</v>
+        <v>142.246488260353</v>
       </c>
       <c r="T105">
-        <v>0.41424972191946158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.19448232367548071</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B106">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D106" t="s">
         <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G106" t="s">
         <v>50</v>
@@ -7091,105 +7090,105 @@
         <v>45</v>
       </c>
       <c r="I106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K106">
-        <v>3.3237495076186891</v>
+        <v>2.255533644180546</v>
       </c>
       <c r="L106">
-        <v>7236</v>
+        <v>20586</v>
       </c>
       <c r="M106">
-        <v>7236000000</v>
+        <v>20586000000</v>
       </c>
       <c r="N106">
-        <v>0.57721563449109203</v>
+        <v>1.114377974378417</v>
       </c>
       <c r="O106">
-        <v>48220</v>
+        <v>13541</v>
       </c>
       <c r="P106">
-        <v>1.1555172106787179</v>
+        <v>1.008491929910841</v>
       </c>
       <c r="Q106">
-        <v>0.80743515240783237</v>
+        <v>0.53677920098246423</v>
       </c>
       <c r="R106">
-        <v>0.17669645529043221</v>
+        <v>0.14224648826035299</v>
       </c>
       <c r="S106">
-        <v>176.6964552904322</v>
+        <v>142.246488260353</v>
       </c>
       <c r="T106">
-        <v>0.45145211346618302</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.38055637170637291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B107">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H107" t="s">
         <v>45</v>
       </c>
       <c r="I107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J107" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K107">
-        <v>6.4035924400300148</v>
+        <v>1.1695119928362261</v>
       </c>
       <c r="L107">
-        <v>19411</v>
+        <v>20586</v>
       </c>
       <c r="M107">
-        <v>19411000000</v>
+        <v>20586000000</v>
       </c>
       <c r="N107">
-        <v>2.9832031884821428</v>
+        <v>0.57781377322863725</v>
       </c>
       <c r="O107">
-        <v>68051</v>
+        <v>13541</v>
       </c>
       <c r="P107">
-        <v>1.239592828283256</v>
+        <v>1.008491929910841</v>
       </c>
       <c r="Q107">
-        <v>0.99681729050194134</v>
+        <v>0.53677920098246423</v>
       </c>
       <c r="R107">
-        <v>0.21535440739482631</v>
+        <v>0.14224648826035299</v>
       </c>
       <c r="S107">
-        <v>215.3544073948263</v>
+        <v>142.246488260353</v>
       </c>
       <c r="T107">
-        <v>0.71364324705440196</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.19732148168534169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>30</v>
       </c>
@@ -7215,45 +7214,45 @@
         <v>45</v>
       </c>
       <c r="I108" t="s">
+        <v>29</v>
+      </c>
+      <c r="J108" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108">
+        <v>0.94751829414069433</v>
+      </c>
+      <c r="L108">
+        <v>18092</v>
+      </c>
+      <c r="M108">
+        <v>18092000000</v>
+      </c>
+      <c r="N108">
+        <v>0.41142002346224249</v>
+      </c>
+      <c r="O108">
+        <v>56684</v>
+      </c>
+      <c r="P108">
+        <v>1.1914012320293721</v>
+      </c>
+      <c r="Q108">
+        <v>0.88501887336493135</v>
+      </c>
+      <c r="R108">
+        <v>0.1925937453712839</v>
+      </c>
+      <c r="S108">
+        <v>192.59374537128389</v>
+      </c>
+      <c r="T108">
+        <v>0.11807464990899599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>30</v>
-      </c>
-      <c r="J108" t="s">
-        <v>28</v>
-      </c>
-      <c r="K108">
-        <v>1.1695119928362261</v>
-      </c>
-      <c r="L108">
-        <v>20586</v>
-      </c>
-      <c r="M108">
-        <v>20586000000</v>
-      </c>
-      <c r="N108">
-        <v>0.57781377322863725</v>
-      </c>
-      <c r="O108">
-        <v>13541</v>
-      </c>
-      <c r="P108">
-        <v>1.008491929910841</v>
-      </c>
-      <c r="Q108">
-        <v>0.53677920098246423</v>
-      </c>
-      <c r="R108">
-        <v>0.14224648826035299</v>
-      </c>
-      <c r="S108">
-        <v>142.246488260353</v>
-      </c>
-      <c r="T108">
-        <v>0.19732148168534169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>12</v>
       </c>
       <c r="B109">
         <v>266</v>
@@ -7268,7 +7267,7 @@
         <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G109" t="s">
         <v>50</v>
@@ -7277,60 +7276,60 @@
         <v>45</v>
       </c>
       <c r="I109" t="s">
+        <v>29</v>
+      </c>
+      <c r="J109" t="s">
+        <v>27</v>
+      </c>
+      <c r="K109">
+        <v>2.2244674706021632</v>
+      </c>
+      <c r="L109">
+        <v>18092</v>
+      </c>
+      <c r="M109">
+        <v>18092000000</v>
+      </c>
+      <c r="N109">
+        <v>0.96588157147522413</v>
+      </c>
+      <c r="O109">
+        <v>56684</v>
+      </c>
+      <c r="P109">
+        <v>1.1914012320293721</v>
+      </c>
+      <c r="Q109">
+        <v>0.88501887336493135</v>
+      </c>
+      <c r="R109">
+        <v>0.1925937453712839</v>
+      </c>
+      <c r="S109">
+        <v>192.59374537128389</v>
+      </c>
+      <c r="T109">
+        <v>0.27720121020301858</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>30</v>
       </c>
-      <c r="J109" t="s">
-        <v>28</v>
-      </c>
-      <c r="K109">
-        <v>1.1983220982424421</v>
-      </c>
-      <c r="L109">
-        <v>21822</v>
-      </c>
-      <c r="M109">
-        <v>21822000000</v>
-      </c>
-      <c r="N109">
-        <v>0.62759483586831766</v>
-      </c>
-      <c r="O109">
-        <v>12847</v>
-      </c>
-      <c r="P109">
-        <v>1.005549643661154</v>
-      </c>
-      <c r="Q109">
-        <v>0.53209471704525679</v>
-      </c>
-      <c r="R109">
-        <v>0.1410051000169931</v>
-      </c>
-      <c r="S109">
-        <v>141.00510001699311</v>
-      </c>
-      <c r="T109">
-        <v>0.20396234146390921</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>12</v>
-      </c>
       <c r="B110">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C110" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D110" t="s">
         <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G110" t="s">
         <v>50</v>
@@ -7339,60 +7338,60 @@
         <v>45</v>
       </c>
       <c r="I110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J110" t="s">
         <v>28</v>
       </c>
       <c r="K110">
-        <v>1.2231569708733829</v>
+        <v>2.044542548627359</v>
       </c>
       <c r="L110">
-        <v>12739</v>
+        <v>18092</v>
       </c>
       <c r="M110">
-        <v>12739000000</v>
+        <v>18092000000</v>
       </c>
       <c r="N110">
-        <v>0.37396311964694462</v>
+        <v>0.88775673095438845</v>
       </c>
       <c r="O110">
-        <v>46766</v>
+        <v>56684</v>
       </c>
       <c r="P110">
-        <v>1.1493528242132349</v>
+        <v>1.1914012320293721</v>
       </c>
       <c r="Q110">
-        <v>0.79458159213532242</v>
+        <v>0.88501887336493135</v>
       </c>
       <c r="R110">
-        <v>0.21056412191586049</v>
+        <v>0.1925937453712839</v>
       </c>
       <c r="S110">
-        <v>210.56412191586051</v>
+        <v>192.59374537128389</v>
       </c>
       <c r="T110">
-        <v>0.13941485868466941</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.25477993105363278</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B111">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G111" t="s">
         <v>50</v>
@@ -7401,57 +7400,57 @@
         <v>45</v>
       </c>
       <c r="I111" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111" t="s">
+        <v>26</v>
+      </c>
+      <c r="K111">
+        <v>50.112326829730648</v>
+      </c>
+      <c r="L111">
+        <v>926</v>
+      </c>
+      <c r="M111">
+        <v>926000000</v>
+      </c>
+      <c r="N111">
+        <v>1.113696351463934</v>
+      </c>
+      <c r="O111">
+        <v>772500</v>
+      </c>
+      <c r="P111">
+        <v>4.2261787163322326</v>
+      </c>
+      <c r="Q111">
+        <v>39.502262736461518</v>
+      </c>
+      <c r="R111">
+        <v>6.8183891449186618</v>
+      </c>
+      <c r="S111">
+        <v>6818.3891449186622</v>
+      </c>
+      <c r="T111">
+        <v>0.17639002678658089</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>30</v>
       </c>
-      <c r="J111" t="s">
-        <v>27</v>
-      </c>
-      <c r="K111">
-        <v>1.349653484951437</v>
-      </c>
-      <c r="L111">
-        <v>12739</v>
-      </c>
-      <c r="M111">
-        <v>12739000000</v>
-      </c>
-      <c r="N111">
-        <v>0.41263765787511247</v>
-      </c>
-      <c r="O111">
-        <v>46766</v>
-      </c>
-      <c r="P111">
-        <v>1.1493528242132349</v>
-      </c>
-      <c r="Q111">
-        <v>0.79458159213532242</v>
-      </c>
-      <c r="R111">
-        <v>0.21056412191586049</v>
-      </c>
-      <c r="S111">
-        <v>210.56412191586051</v>
-      </c>
-      <c r="T111">
-        <v>0.153832872115687</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>40</v>
-      </c>
       <c r="B112">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D112" t="s">
         <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -7463,60 +7462,60 @@
         <v>45</v>
       </c>
       <c r="I112" t="s">
+        <v>25</v>
+      </c>
+      <c r="J112" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112">
+        <v>4.4424628217088298</v>
+      </c>
+      <c r="L112">
+        <v>926</v>
+      </c>
+      <c r="M112">
+        <v>926000000</v>
+      </c>
+      <c r="N112">
+        <v>9.8729293749657027E-2</v>
+      </c>
+      <c r="O112">
+        <v>772500</v>
+      </c>
+      <c r="P112">
+        <v>4.2261787163322326</v>
+      </c>
+      <c r="Q112">
+        <v>39.502262736461518</v>
+      </c>
+      <c r="R112">
+        <v>6.8183891449186618</v>
+      </c>
+      <c r="S112">
+        <v>6818.3891449186622</v>
+      </c>
+      <c r="T112">
+        <v>1.563699364394136E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>30</v>
       </c>
-      <c r="J112" t="s">
-        <v>28</v>
-      </c>
-      <c r="K112">
-        <v>1.401594703306873</v>
-      </c>
-      <c r="L112">
-        <v>10911</v>
-      </c>
-      <c r="M112">
-        <v>10911000000</v>
-      </c>
-      <c r="N112">
-        <v>0.36702719538675099</v>
-      </c>
-      <c r="O112">
-        <v>15678</v>
-      </c>
-      <c r="P112">
-        <v>1.0175519669649939</v>
-      </c>
-      <c r="Q112">
-        <v>0.55137642359320849</v>
-      </c>
-      <c r="R112">
-        <v>0.14611475225220019</v>
-      </c>
-      <c r="S112">
-        <v>146.11475225220019</v>
-      </c>
-      <c r="T112">
-        <v>0.23021818372797759</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>12</v>
-      </c>
       <c r="B113">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D113" t="s">
         <v>21</v>
       </c>
       <c r="E113" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
         <v>50</v>
@@ -7525,745 +7524,745 @@
         <v>45</v>
       </c>
       <c r="I113" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K113">
-        <v>1.40325370278112</v>
+        <v>52.030663048195827</v>
       </c>
       <c r="L113">
-        <v>12739</v>
+        <v>926</v>
       </c>
       <c r="M113">
-        <v>12739000000</v>
+        <v>926000000</v>
       </c>
       <c r="N113">
-        <v>0.4290251740734885</v>
+        <v>1.1563294555831041</v>
       </c>
       <c r="O113">
-        <v>46766</v>
+        <v>772500</v>
       </c>
       <c r="P113">
-        <v>1.1493528242132349</v>
+        <v>4.2261787163322326</v>
       </c>
       <c r="Q113">
-        <v>0.79458159213532242</v>
+        <v>39.502262736461518</v>
       </c>
       <c r="R113">
-        <v>0.21056412191586049</v>
+        <v>6.8183891449186618</v>
       </c>
       <c r="S113">
-        <v>210.56412191586051</v>
+        <v>6818.3891449186622</v>
       </c>
       <c r="T113">
-        <v>0.1599421998406943</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.18314236495101019</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>12</v>
       </c>
       <c r="B114">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F114" t="s">
         <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H114" t="s">
         <v>24</v>
       </c>
       <c r="I114" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J114" t="s">
         <v>26</v>
       </c>
       <c r="K114">
-        <v>93.126472605803926</v>
+        <v>0.37794129203326582</v>
       </c>
       <c r="L114">
-        <v>2453</v>
+        <v>18584</v>
       </c>
       <c r="M114">
-        <v>2453000000</v>
+        <v>18584000000</v>
       </c>
       <c r="N114">
-        <v>5.4825416952488881</v>
+        <v>0.16856786330750911</v>
       </c>
       <c r="O114">
-        <v>712200</v>
+        <v>7716</v>
       </c>
       <c r="P114">
-        <v>3.970530501842108</v>
+        <v>0.98379622759898422</v>
       </c>
       <c r="Q114">
-        <v>32.758500020329009</v>
+        <v>0.49830340685954871</v>
       </c>
       <c r="R114">
-        <v>5.7193015367825728</v>
+        <v>0.13205040281778041</v>
       </c>
       <c r="S114">
-        <v>5719.3015367825728</v>
+        <v>132.05040281778039</v>
       </c>
       <c r="T114">
-        <v>0.39078816323376198</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.8690369853056099E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>12</v>
       </c>
       <c r="B115">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F115" t="s">
         <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H115" t="s">
         <v>24</v>
       </c>
       <c r="I115" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K115">
-        <v>102.63027134870271</v>
+        <v>0.38771563579274698</v>
       </c>
       <c r="L115">
-        <v>2727</v>
+        <v>18584</v>
       </c>
       <c r="M115">
-        <v>2727000000</v>
+        <v>18584000000</v>
       </c>
       <c r="N115">
-        <v>6.7169459992298943</v>
+        <v>0.17292737701373781</v>
       </c>
       <c r="O115">
-        <v>697500</v>
+        <v>7716</v>
       </c>
       <c r="P115">
-        <v>3.9082083002997399</v>
+        <v>0.98379622759898422</v>
       </c>
       <c r="Q115">
-        <v>31.263866716308609</v>
+        <v>0.49830340685954871</v>
       </c>
       <c r="R115">
-        <v>5.4735664849996351</v>
+        <v>0.13205040281778041</v>
       </c>
       <c r="S115">
-        <v>5473.5664849996347</v>
+        <v>132.05040281778039</v>
       </c>
       <c r="T115">
-        <v>0.45000394516428888</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.0466844935462764E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B116">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E116" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H116" t="s">
         <v>24</v>
       </c>
       <c r="I116" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K116">
-        <v>103.4201882359766</v>
+        <v>0.41834191290578748</v>
       </c>
       <c r="L116">
-        <v>2355</v>
+        <v>18584</v>
       </c>
       <c r="M116">
-        <v>2355000000</v>
+        <v>18584000000</v>
       </c>
       <c r="N116">
-        <v>5.8453090390973976</v>
+        <v>0.18658718662658769</v>
       </c>
       <c r="O116">
-        <v>575650</v>
+        <v>7716</v>
       </c>
       <c r="P116">
-        <v>3.391612364385618</v>
+        <v>0.98379622759898422</v>
       </c>
       <c r="Q116">
-        <v>20.785742103638931</v>
+        <v>0.49830340685954871</v>
       </c>
       <c r="R116">
-        <v>3.725429140212615</v>
+        <v>0.13205040281778041</v>
       </c>
       <c r="S116">
-        <v>3725.429140212615</v>
+        <v>132.05040281778039</v>
       </c>
       <c r="T116">
-        <v>0.66625465798600125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.6033133527003513E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>12</v>
       </c>
       <c r="B117">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F117" t="s">
         <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H117" t="s">
         <v>24</v>
       </c>
       <c r="I117" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J117" t="s">
         <v>26</v>
       </c>
       <c r="K117">
-        <v>107.6221503289933</v>
+        <v>2.0669478936715859</v>
       </c>
       <c r="L117">
-        <v>2727</v>
+        <v>3350</v>
       </c>
       <c r="M117">
-        <v>2727000000</v>
+        <v>3350000000</v>
       </c>
       <c r="N117">
-        <v>7.0436544947319533</v>
+        <v>0.16618261065119549</v>
       </c>
       <c r="O117">
-        <v>697500</v>
+        <v>60186</v>
       </c>
       <c r="P117">
-        <v>3.9082083002997399</v>
+        <v>1.206248330655316</v>
       </c>
       <c r="Q117">
-        <v>31.263866716308609</v>
+        <v>0.91851990805229744</v>
       </c>
       <c r="R117">
-        <v>5.4735664849996351</v>
+        <v>0.19943157625818059</v>
       </c>
       <c r="S117">
-        <v>5473.5664849996347</v>
+        <v>199.4315762581806</v>
       </c>
       <c r="T117">
-        <v>0.47189188529533532</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.2487406978316114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>12</v>
       </c>
       <c r="B118">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F118" t="s">
         <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H118" t="s">
         <v>24</v>
       </c>
       <c r="I118" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K118">
-        <v>113.8000406364639</v>
+        <v>2.0838900895213519</v>
       </c>
       <c r="L118">
-        <v>2453</v>
+        <v>3350</v>
       </c>
       <c r="M118">
-        <v>2453000000</v>
+        <v>3350000000</v>
       </c>
       <c r="N118">
-        <v>6.6996359923499034</v>
+        <v>0.16754476319751671</v>
       </c>
       <c r="O118">
-        <v>712200</v>
+        <v>60186</v>
       </c>
       <c r="P118">
-        <v>3.970530501842108</v>
+        <v>1.206248330655316</v>
       </c>
       <c r="Q118">
-        <v>32.758500020329009</v>
+        <v>0.91851990805229744</v>
       </c>
       <c r="R118">
-        <v>5.7193015367825728</v>
+        <v>0.19943157625818059</v>
       </c>
       <c r="S118">
-        <v>5719.3015367825728</v>
+        <v>199.4315762581806</v>
       </c>
       <c r="T118">
-        <v>0.47754100001721311</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.25077955601055879</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>12</v>
       </c>
       <c r="B119">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F119" t="s">
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H119" t="s">
         <v>24</v>
       </c>
       <c r="I119" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K119">
-        <v>117.6220111249948</v>
+        <v>2.117774481220887</v>
       </c>
       <c r="L119">
-        <v>2727</v>
+        <v>3350</v>
       </c>
       <c r="M119">
-        <v>2727000000</v>
+        <v>3350000000</v>
       </c>
       <c r="N119">
-        <v>7.6981253841086597</v>
+        <v>0.17026906829015931</v>
       </c>
       <c r="O119">
-        <v>697500</v>
+        <v>60186</v>
       </c>
       <c r="P119">
-        <v>3.9082083002997399</v>
+        <v>1.206248330655316</v>
       </c>
       <c r="Q119">
-        <v>31.263866716308609</v>
+        <v>0.91851990805229744</v>
       </c>
       <c r="R119">
-        <v>5.4735664849996351</v>
+        <v>0.19943157625818059</v>
       </c>
       <c r="S119">
-        <v>5473.5664849996347</v>
+        <v>199.4315762581806</v>
       </c>
       <c r="T119">
-        <v>0.51573837181591553</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.25485727236845418</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>12</v>
       </c>
       <c r="B120">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="C120" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F120" t="s">
         <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H120" t="s">
         <v>24</v>
       </c>
       <c r="I120" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K120">
-        <v>2.6716610993468342</v>
+        <v>35.307536150914629</v>
       </c>
       <c r="L120">
-        <v>9442</v>
+        <v>1634</v>
       </c>
       <c r="M120">
-        <v>9442000000</v>
+        <v>1634000000</v>
       </c>
       <c r="N120">
-        <v>0.60541977840078731</v>
+        <v>1.3846203376942681</v>
       </c>
       <c r="O120">
-        <v>79289.5</v>
+        <v>619100</v>
       </c>
       <c r="P120">
-        <v>1.2872396352243389</v>
+        <v>3.5758232254071078</v>
       </c>
       <c r="Q120">
-        <v>1.116237499850002</v>
+        <v>23.928006623263101</v>
       </c>
       <c r="R120">
-        <v>0.23949541665892721</v>
+        <v>4.2584051035555923</v>
       </c>
       <c r="S120">
-        <v>239.49541665892721</v>
+        <v>4258.4051035555922</v>
       </c>
       <c r="T120">
-        <v>0.26772899155577201</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.198990196332994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>12</v>
       </c>
       <c r="B121">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F121" t="s">
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H121" t="s">
         <v>24</v>
       </c>
       <c r="I121" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K121">
-        <v>3.5108367010647501</v>
+        <v>34.087698049731401</v>
       </c>
       <c r="L121">
-        <v>9442</v>
+        <v>1634</v>
       </c>
       <c r="M121">
-        <v>9442000000</v>
+        <v>1634000000</v>
       </c>
       <c r="N121">
-        <v>0.79558368315488082</v>
+        <v>1.336783166718267</v>
       </c>
       <c r="O121">
-        <v>79289.5</v>
+        <v>619100</v>
       </c>
       <c r="P121">
-        <v>1.2872396352243389</v>
+        <v>3.5758232254071078</v>
       </c>
       <c r="Q121">
-        <v>1.116237499850002</v>
+        <v>23.928006623263101</v>
       </c>
       <c r="R121">
-        <v>0.23949541665892721</v>
+        <v>4.2584051035555923</v>
       </c>
       <c r="S121">
-        <v>239.49541665892721</v>
+        <v>4258.4051035555922</v>
       </c>
       <c r="T121">
-        <v>0.35182335428803369</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.19211529511611519</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B122">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E122" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H122" t="s">
         <v>24</v>
       </c>
       <c r="I122" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J122" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K122">
-        <v>3.6877770021686058</v>
+        <v>33.003397515346308</v>
       </c>
       <c r="L122">
-        <v>14653</v>
+        <v>1634</v>
       </c>
       <c r="M122">
-        <v>14653000000</v>
+        <v>1634000000</v>
       </c>
       <c r="N122">
-        <v>1.296887913906638</v>
+        <v>1.2942612369618209</v>
       </c>
       <c r="O122">
-        <v>75552.25</v>
+        <v>619100</v>
       </c>
       <c r="P122">
-        <v>1.27139516939344</v>
+        <v>3.5758232254071078</v>
       </c>
       <c r="Q122">
-        <v>1.076684586715988</v>
+        <v>23.928006623263101</v>
       </c>
       <c r="R122">
-        <v>0.23149660812887299</v>
+        <v>4.2584051035555923</v>
       </c>
       <c r="S122">
-        <v>231.49660812887299</v>
+        <v>4258.4051035555922</v>
       </c>
       <c r="T122">
-        <v>0.38232373583104651</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.18600427181222279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B123">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E123" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H123" t="s">
         <v>24</v>
       </c>
       <c r="I123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J123" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K123">
-        <v>6.2280812687099587</v>
+        <v>0.2021207754937013</v>
       </c>
       <c r="L123">
-        <v>12408</v>
+        <v>79120</v>
       </c>
       <c r="M123">
-        <v>12408000000</v>
+        <v>79120000000</v>
       </c>
       <c r="N123">
-        <v>1.854672777171676</v>
+        <v>0.38380309816947961</v>
       </c>
       <c r="O123">
-        <v>81489.75</v>
+        <v>3580</v>
       </c>
       <c r="P123">
-        <v>1.2965678273293459</v>
+        <v>0.96626121905617901</v>
       </c>
       <c r="Q123">
-        <v>1.140857900093986</v>
+        <v>0.47213048799994611</v>
       </c>
       <c r="R123">
-        <v>0.24444906884000331</v>
+        <v>0.12511457931998571</v>
       </c>
       <c r="S123">
-        <v>244.44906884000329</v>
+        <v>125.11457931998569</v>
       </c>
       <c r="T123">
-        <v>0.61147277491522245</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>3.877164946095097E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B124">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E124" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H124" t="s">
         <v>24</v>
       </c>
       <c r="I124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K124">
-        <v>6.267719017436832</v>
+        <v>0.227385872430414</v>
       </c>
       <c r="L124">
-        <v>12408</v>
+        <v>79120</v>
       </c>
       <c r="M124">
-        <v>12408000000</v>
+        <v>79120000000</v>
       </c>
       <c r="N124">
-        <v>1.8664765816405491</v>
+        <v>0.43177848544066461</v>
       </c>
       <c r="O124">
-        <v>81489.75</v>
+        <v>3580</v>
       </c>
       <c r="P124">
-        <v>1.2965678273293459</v>
+        <v>0.96626121905617901</v>
       </c>
       <c r="Q124">
-        <v>1.140857900093986</v>
+        <v>0.47213048799994611</v>
       </c>
       <c r="R124">
-        <v>0.24444906884000331</v>
+        <v>0.12511457931998571</v>
       </c>
       <c r="S124">
-        <v>244.44906884000329</v>
+        <v>125.11457931998569</v>
       </c>
       <c r="T124">
-        <v>0.6153644075320257</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>4.3618105643569847E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B125">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E125" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F125" t="s">
         <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H125" t="s">
         <v>24</v>
@@ -8272,377 +8271,353 @@
         <v>29</v>
       </c>
       <c r="J125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K125">
-        <v>10.625141882560561</v>
+        <v>0.6568925203545295</v>
       </c>
       <c r="L125">
-        <v>14653</v>
+        <v>9154</v>
       </c>
       <c r="M125">
-        <v>14653000000</v>
+        <v>9154000000</v>
       </c>
       <c r="N125">
-        <v>3.7365648961238378</v>
+        <v>0.14431665915180869</v>
       </c>
       <c r="O125">
-        <v>75552.25</v>
+        <v>56678</v>
       </c>
       <c r="P125">
-        <v>1.27139516939344</v>
+        <v>1.191375794396089</v>
       </c>
       <c r="Q125">
-        <v>1.076684586715988</v>
+        <v>0.8849621864043774</v>
       </c>
       <c r="R125">
-        <v>0.23149660812887299</v>
+        <v>0.1925821618857943</v>
       </c>
       <c r="S125">
-        <v>231.49660812887299</v>
+        <v>192.58216188579431</v>
       </c>
       <c r="T125">
-        <v>1.1015427277426639</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.1863347747949622E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B126">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="C126" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D126" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E126" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F126" t="s">
         <v>22</v>
       </c>
       <c r="G126" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H126" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J126" t="s">
         <v>27</v>
       </c>
       <c r="K126">
-        <v>1.416194648132987</v>
+        <v>0.72988057817169938</v>
       </c>
       <c r="L126">
-        <v>10911</v>
+        <v>9154</v>
       </c>
       <c r="M126">
-        <v>10911000000</v>
+        <v>9154000000</v>
       </c>
       <c r="N126">
-        <v>0.37085039533869651</v>
+        <v>0.16035184350200971</v>
       </c>
       <c r="O126">
-        <v>15678</v>
+        <v>56678</v>
       </c>
       <c r="P126">
-        <v>1.0175519669649939</v>
+        <v>1.191375794396089</v>
       </c>
       <c r="Q126">
-        <v>0.55137642359320849</v>
+        <v>0.8849621864043774</v>
       </c>
       <c r="R126">
-        <v>0.14611475225220019</v>
+        <v>0.1925821618857943</v>
       </c>
       <c r="S126">
-        <v>146.11475225220019</v>
+        <v>192.58216188579431</v>
       </c>
       <c r="T126">
-        <v>0.23261628980847751</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.095927527549956E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B127">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="C127" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D127" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E127" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F127" t="s">
         <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H127" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J127" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K127">
-        <v>1.4354665753034559</v>
+        <v>0.54741043362877451</v>
       </c>
       <c r="L127">
-        <v>10911</v>
+        <v>9154</v>
       </c>
       <c r="M127">
-        <v>10911000000</v>
+        <v>9154000000</v>
       </c>
       <c r="N127">
-        <v>0.37589701927526409</v>
+        <v>0.1202638826265072</v>
       </c>
       <c r="O127">
-        <v>15678</v>
+        <v>56678</v>
       </c>
       <c r="P127">
-        <v>1.0175519669649939</v>
+        <v>1.191375794396089</v>
       </c>
       <c r="Q127">
-        <v>0.55137642359320849</v>
+        <v>0.8849621864043774</v>
       </c>
       <c r="R127">
-        <v>0.14611475225220019</v>
+        <v>0.1925821618857943</v>
       </c>
       <c r="S127">
-        <v>146.11475225220019</v>
+        <v>192.58216188579431</v>
       </c>
       <c r="T127">
-        <v>0.23578178983473699</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.821945645662468E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B128">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D128" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E128" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H128" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I128" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J128" t="s">
         <v>26</v>
       </c>
       <c r="K128">
-        <v>1.514370051214418</v>
+        <v>25.61880829382665</v>
       </c>
       <c r="L128">
-        <v>21822</v>
+        <v>689</v>
       </c>
       <c r="M128">
-        <v>21822000000</v>
+        <v>689000000</v>
       </c>
       <c r="N128">
-        <v>0.79311799818242468</v>
+        <v>0.42363261394671742</v>
       </c>
       <c r="O128">
-        <v>12847</v>
+        <v>544500</v>
       </c>
       <c r="P128">
-        <v>1.005549643661154</v>
+        <v>3.2595486515934562</v>
       </c>
       <c r="Q128">
-        <v>0.53209471704525679</v>
+        <v>18.123864251263761</v>
       </c>
       <c r="R128">
-        <v>0.1410051000169931</v>
+        <v>3.280584683703224</v>
       </c>
       <c r="S128">
-        <v>141.00510001699311</v>
+        <v>3280.5846837032241</v>
       </c>
       <c r="T128">
-        <v>0.25775579198742432</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.1874212856342963</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B129">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D129" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I129" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J129" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K129">
-        <v>2.1760128181132061</v>
+        <v>16.714265240131919</v>
       </c>
       <c r="L129">
-        <v>83984</v>
+        <v>689</v>
       </c>
       <c r="M129">
-        <v>83984000000</v>
+        <v>689000000</v>
       </c>
       <c r="N129">
-        <v>4.3860062523940666</v>
+        <v>0.2763870900108214</v>
       </c>
       <c r="O129">
-        <v>9527</v>
+        <v>544500</v>
       </c>
       <c r="P129">
-        <v>0.99147415324478205</v>
+        <v>3.2595486515934562</v>
       </c>
       <c r="Q129">
-        <v>0.5100615529935143</v>
+        <v>18.123864251263761</v>
       </c>
       <c r="R129">
-        <v>0.13516631154328129</v>
+        <v>3.280584683703224</v>
       </c>
       <c r="S129">
-        <v>135.1663115432813</v>
+        <v>3280.5846837032241</v>
       </c>
       <c r="T129">
-        <v>0.38637073867325528</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.1222777048725181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B130">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E130" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F130" t="s">
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H130" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I130" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K130">
-        <v>2.255533644180546</v>
+        <v>20.874584535710611</v>
       </c>
       <c r="L130">
-        <v>20586</v>
+        <v>689</v>
       </c>
       <c r="M130">
-        <v>20586000000</v>
+        <v>689000000</v>
       </c>
       <c r="N130">
-        <v>1.114377974378417</v>
+        <v>0.34518212988251062</v>
       </c>
       <c r="O130">
-        <v>13541</v>
+        <v>544500</v>
       </c>
       <c r="P130">
-        <v>1.008491929910841</v>
+        <v>3.2595486515934562</v>
       </c>
       <c r="Q130">
-        <v>0.53677920098246423</v>
+        <v>18.123864251263761</v>
       </c>
       <c r="R130">
-        <v>0.14224648826035299</v>
+        <v>3.280584683703224</v>
       </c>
       <c r="S130">
-        <v>142.246488260353</v>
+        <v>3280.5846837032241</v>
       </c>
       <c r="T130">
-        <v>0.38055637170637291</v>
+        <v>0.15271364014646371</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T130" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-        <filter val="10"/>
-        <filter val="11"/>
-        <filter val="2"/>
-        <filter val="3"/>
-        <filter val="4"/>
-        <filter val="5"/>
-        <filter val="6"/>
-        <filter val="8"/>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="ST"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Nano"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A72:T101">
-      <sortCondition ref="K1:K130"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T130">
+      <sortCondition ref="D1:D130"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
